--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jane\PycharmProjects\Nimrod\model\Squoids_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Nimrod\model\Squoids_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7776" windowHeight="540" tabRatio="904" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8356" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8356" uniqueCount="286">
   <si>
     <t>width</t>
   </si>
@@ -2033,6 +2033,9 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>@</t>
+  </si>
 </sst>
 </file>
 
@@ -2258,371 +2261,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="70">
     <dxf>
       <fill>
         <patternFill>
@@ -2732,6 +2371,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3353,15 +3034,15 @@
       <selection activeCell="T20" sqref="A1:T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f t="shared" ref="A1:A20" si="0">MID($AA1,COLUMN(),1)</f>
         <v>*</v>
@@ -3473,7 +3154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -3585,7 +3266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -3697,7 +3378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -3809,7 +3490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -3921,7 +3602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>#</v>
@@ -4033,7 +3714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -4145,7 +3826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -4257,7 +3938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -4369,7 +4050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>#</v>
@@ -4481,7 +4162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -4593,7 +4274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -4705,7 +4386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -4817,7 +4498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -4929,7 +4610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -5041,7 +4722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
@@ -5153,7 +4834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -5265,7 +4946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -5377,7 +5058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -5489,7 +5170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -5601,7 +5282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5628,7 +5309,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5655,7 +5336,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5682,7 +5363,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5709,7 +5390,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -5736,7 +5417,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -5823,7 +5504,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +5512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -5839,24 +5520,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="115" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="114" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5873,15 +5554,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -5956,7 +5637,7 @@
         <v>'~~~~~~~~~~~~~~~~~   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -6031,7 +5712,7 @@
         <v>'~~~~~~~~~~~~~~~~~~  ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -6106,7 +5787,7 @@
         <v>'~~~~~~~~~~~~~~~~~~  ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -6181,7 +5862,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~ ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -6256,7 +5937,7 @@
         <v>'~~~~~~~~~~~~ ~~~l~~ ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -6331,7 +6012,7 @@
         <v>'~~~~~~~~~~~~~~~~ll~~',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6406,7 +6087,7 @@
         <v>'~~~~~~~~~~~~~~~~~l~~',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -6481,7 +6162,7 @@
         <v>'~~~~~~~~~~~~~~~~~l~~',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -6556,7 +6237,7 @@
         <v>'~~~~~~~~~~~~~~~~ll~~',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -6631,7 +6312,7 @@
         <v>'~~~~~~~~~~~~~~~~l~~~',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -6706,7 +6387,7 @@
         <v>'~~~~~~~~~~ii~~~ll~~~',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -6781,7 +6462,7 @@
         <v>'~~~~~~~~~~ii~~~ll~~~',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -6856,7 +6537,7 @@
         <v>'ll~~~~~~~iiii~~lll~~',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -6931,7 +6612,7 @@
         <v>'~llll~~~~~~ii~~~lll~',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -7006,7 +6687,7 @@
         <v>'~~l~ll~~~~~iii~~~~l ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -7081,7 +6762,7 @@
         <v>'~~~~~l~~~iiii~~~~~  ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -7156,7 +6837,7 @@
         <v>'~~~~~~~~~~~~~~~~~~  ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -7231,7 +6912,7 @@
         <v>' ~~~ ~~~~~~~~~~~    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -7306,7 +6987,7 @@
         <v>'   ~~~~~~~~~~~      ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -7381,7 +7062,7 @@
         <v>'     ~~~~~~~~       ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7416,7 +7097,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7451,7 +7132,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7486,7 +7167,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7521,7 +7202,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -7556,7 +7237,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -7564,7 +7245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -7572,34 +7253,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="95" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="94" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="93" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="92" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7616,15 +7297,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>255</v>
       </c>
@@ -7699,7 +7380,7 @@
         <v>'###########i#i#i#   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>255</v>
       </c>
@@ -7774,7 +7455,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>265</v>
       </c>
@@ -7849,7 +7530,7 @@
         <v>'i              T    ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>255</v>
       </c>
@@ -7924,7 +7605,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>265</v>
       </c>
@@ -7999,7 +7680,7 @@
         <v>'i           bw      ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>255</v>
       </c>
@@ -8074,7 +7755,7 @@
         <v>'#           w       ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>265</v>
       </c>
@@ -8149,7 +7830,7 @@
         <v>'i  p   p            ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>265</v>
       </c>
@@ -8224,7 +7905,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>265</v>
       </c>
@@ -8299,7 +7980,7 @@
         <v>'i    p              ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>255</v>
       </c>
@@ -8374,7 +8055,7 @@
         <v>'#         p         ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>255</v>
       </c>
@@ -8449,7 +8130,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>265</v>
       </c>
@@ -8524,7 +8205,7 @@
         <v>'i      !            ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>265</v>
       </c>
@@ -8599,7 +8280,7 @@
         <v>'i           p       ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>255</v>
       </c>
@@ -8674,7 +8355,7 @@
         <v>'# !                 ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>265</v>
       </c>
@@ -8749,7 +8430,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>255</v>
       </c>
@@ -8824,7 +8505,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>255</v>
       </c>
@@ -8899,7 +8580,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -8974,7 +8655,7 @@
         <v>'    bw              ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -9049,7 +8730,7 @@
         <v>'    w   T           ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -9124,7 +8805,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9159,7 +8840,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -9194,7 +8875,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9229,7 +8910,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9264,7 +8945,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -9299,7 +8980,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -9307,7 +8988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -9315,24 +8996,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="90" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9349,15 +9030,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>255</v>
       </c>
@@ -9432,7 +9113,7 @@
         <v>'###########i#i#i#   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>255</v>
       </c>
@@ -9507,7 +9188,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>265</v>
       </c>
@@ -9582,7 +9263,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>255</v>
       </c>
@@ -9657,7 +9338,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>265</v>
       </c>
@@ -9732,7 +9413,7 @@
         <v>'i           b       ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>255</v>
       </c>
@@ -9807,7 +9488,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>265</v>
       </c>
@@ -9882,7 +9563,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>265</v>
       </c>
@@ -9957,7 +9638,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>265</v>
       </c>
@@ -10032,7 +9713,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>255</v>
       </c>
@@ -10107,7 +9788,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>255</v>
       </c>
@@ -10182,7 +9863,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>265</v>
       </c>
@@ -10257,7 +9938,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>265</v>
       </c>
@@ -10332,7 +10013,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>255</v>
       </c>
@@ -10407,7 +10088,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>265</v>
       </c>
@@ -10482,7 +10163,7 @@
         <v>'i                   ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>255</v>
       </c>
@@ -10557,7 +10238,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>255</v>
       </c>
@@ -10632,7 +10313,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -10707,7 +10388,7 @@
         <v>'    b               ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -10782,7 +10463,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -10857,7 +10538,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -10892,7 +10573,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -10927,7 +10608,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -10962,7 +10643,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10997,7 +10678,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -11032,7 +10713,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -11040,7 +10721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -11048,24 +10729,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="88" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11082,15 +10763,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -11165,7 +10846,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -11240,7 +10921,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -11315,7 +10996,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -11390,7 +11071,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -11465,7 +11146,7 @@
         <v>'            b       ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -11540,7 +11221,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -11615,7 +11296,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -11690,7 +11371,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -11765,7 +11446,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -11840,7 +11521,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
@@ -11915,7 +11596,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -11990,7 +11671,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -12065,7 +11746,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -12140,7 +11821,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
@@ -12215,7 +11896,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -12290,7 +11971,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -12365,7 +12046,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -12440,7 +12121,7 @@
         <v>'    b               ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -12515,7 +12196,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -12590,7 +12271,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -12625,7 +12306,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -12660,7 +12341,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -12695,7 +12376,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -12730,7 +12411,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -12765,7 +12446,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -12773,7 +12454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -12781,24 +12462,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="87" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="86" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12815,15 +12496,15 @@
       <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -12898,7 +12579,7 @@
         <v>'                *   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -12973,7 +12654,7 @@
         <v>'                 *  ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -13048,7 +12729,7 @@
         <v>'                  * ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
@@ -13123,7 +12804,7 @@
         <v>'*******            *',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -13198,7 +12879,7 @@
         <v>'**llll****    ******',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -13273,7 +12954,7 @@
         <v>'**llll*lll****llll**',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -13348,7 +13029,7 @@
         <v>'llllll*lllllllllll**',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -13423,7 +13104,7 @@
         <v>'llllllllllllllllllll',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -13498,7 +13179,7 @@
         <v>'llllllllllllllllllll',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
@@ -13573,7 +13254,7 @@
         <v>'**llllllllllllllllll',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -13648,7 +13329,7 @@
         <v>' *llllllllllllllllll',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -13723,7 +13404,7 @@
         <v>'  *ll*lllllllllllll*',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -13798,7 +13479,7 @@
         <v>'  *ll*lllllllllllll*',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -13873,7 +13554,7 @@
         <v>'  *ll*llll****llll**',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -13948,7 +13629,7 @@
         <v>'  ********    ******',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -14023,7 +13704,7 @@
         <v>'*                  *',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -14098,7 +13779,7 @@
         <v>' *                 *',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -14173,7 +13854,7 @@
         <v>' *               ***',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -14248,7 +13929,7 @@
         <v>'  ***           **  ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -14323,7 +14004,7 @@
         <v>'    *************   ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -14358,7 +14039,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -14393,7 +14074,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -14428,7 +14109,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -14463,7 +14144,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -14498,7 +14179,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -14506,7 +14187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -14514,34 +14195,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="85" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="83" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="82" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14558,15 +14239,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -14641,7 +14322,7 @@
         <v>'                *   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -14716,7 +14397,7 @@
         <v>'                 *  ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -14791,7 +14472,7 @@
         <v>'                  * ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -14866,7 +14547,7 @@
         <v>'  *****            *',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -14941,7 +14622,7 @@
         <v>' *    ****    ******',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>255</v>
       </c>
@@ -15016,7 +14697,7 @@
         <v>'#*    *  +****+   **',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -15091,7 +14772,7 @@
         <v>'      *           **',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -15166,7 +14847,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -15241,7 +14922,7 @@
         <v>'         +    +     ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>255</v>
       </c>
@@ -15316,7 +14997,7 @@
         <v>'#*                  ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>255</v>
       </c>
@@ -15391,7 +15072,7 @@
         <v>'#*       +    +     ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -15466,7 +15147,7 @@
         <v>'  *  *             *',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -15541,7 +15222,7 @@
         <v>'  *  *             *',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -15616,7 +15297,7 @@
         <v>'  *  *   +****+   **',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
@@ -15691,7 +15372,7 @@
         <v>'  ********    ******',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>61</v>
       </c>
@@ -15766,7 +15447,7 @@
         <v>'*                  *',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -15841,7 +15522,7 @@
         <v>' *                 *',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -15916,7 +15597,7 @@
         <v>' *               ***',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -15991,7 +15672,7 @@
         <v>'  ***           **  ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -16066,7 +15747,7 @@
         <v>'    *************   ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -16101,7 +15782,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -16136,7 +15817,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -16171,7 +15852,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -16206,7 +15887,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -16241,7 +15922,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -16249,7 +15930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -16257,24 +15938,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16291,15 +15972,15 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>61</v>
       </c>
@@ -16374,7 +16055,7 @@
         <v>'*****************   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
@@ -16449,7 +16130,7 @@
         <v>'******************  ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
@@ -16524,7 +16205,7 @@
         <v>'******************* ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
@@ -16599,7 +16280,7 @@
         <v>'********************',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -16674,7 +16355,7 @@
         <v>'**    **************',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>255</v>
       </c>
@@ -16749,7 +16430,7 @@
         <v>'#*    *  +****+   **',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -16824,7 +16505,7 @@
         <v>' i    *   ####    **',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -16899,7 +16580,7 @@
         <v>' i        ####     i',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -16974,7 +16655,7 @@
         <v>' i       +####+    i',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>255</v>
       </c>
@@ -17049,7 +16730,7 @@
         <v>'#*       #####]    i',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>61</v>
       </c>
@@ -17124,7 +16805,7 @@
         <v>'**       +####+    i',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>61</v>
       </c>
@@ -17199,7 +16880,7 @@
         <v>'***  *    ####     *',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>61</v>
       </c>
@@ -17274,7 +16955,7 @@
         <v>'***  *    ####     *',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>61</v>
       </c>
@@ -17349,7 +17030,7 @@
         <v>'***  *   +****+   **',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
@@ -17424,7 +17105,7 @@
         <v>'********************',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>61</v>
       </c>
@@ -17499,7 +17180,7 @@
         <v>'********************',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -17574,7 +17255,7 @@
         <v>' *******************',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -17649,7 +17330,7 @@
         <v>' *******************',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -17724,7 +17405,7 @@
         <v>'  ****************  ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -17799,7 +17480,7 @@
         <v>'    *************   ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -17834,7 +17515,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -17869,7 +17550,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -17904,7 +17585,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -17939,7 +17620,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -17974,7 +17655,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -17982,7 +17663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -17990,24 +17671,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="78" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18024,15 +17705,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>264</v>
       </c>
@@ -18107,7 +17788,7 @@
         <v>'H###############+   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>255</v>
       </c>
@@ -18182,7 +17863,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>255</v>
       </c>
@@ -18257,7 +17938,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>255</v>
       </c>
@@ -18332,7 +18013,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>255</v>
       </c>
@@ -18407,7 +18088,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -18482,7 +18163,7 @@
         <v>'+        p    p     ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -18557,7 +18238,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -18632,7 +18313,7 @@
         <v>'           !        ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -18707,7 +18388,7 @@
         <v>'         p    p     ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
@@ -18782,7 +18463,7 @@
         <v>'+        c    c     ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>255</v>
       </c>
@@ -18857,7 +18538,7 @@
         <v>'#        p    p     ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>255</v>
       </c>
@@ -18932,7 +18613,7 @@
         <v>'#           !       ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>255</v>
       </c>
@@ -19007,7 +18688,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>255</v>
       </c>
@@ -19082,7 +18763,7 @@
         <v>'#        p    p     ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>255</v>
       </c>
@@ -19157,7 +18838,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>255</v>
       </c>
@@ -19231,7 +18912,7 @@
         <v>'+',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
@@ -19305,7 +18986,7 @@
         <v>' ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -19380,7 +19061,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -19455,7 +19136,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -19530,7 +19211,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -19565,7 +19246,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -19600,7 +19281,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -19635,7 +19316,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -19670,7 +19351,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -19705,7 +19386,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -19713,7 +19394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -19721,24 +19402,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19755,15 +19436,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>266</v>
       </c>
@@ -19842,7 +19523,7 @@
         <v>'b~~~~~~~~~~~~~~~~~  ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
@@ -19921,7 +19602,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~ ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -20000,7 +19681,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -20079,7 +19760,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -20158,7 +19839,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -20237,7 +19918,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -20316,7 +19997,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -20395,7 +20076,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
@@ -20474,7 +20155,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
@@ -20553,7 +20234,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
@@ -20632,7 +20313,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
@@ -20711,7 +20392,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -20790,7 +20471,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -20869,7 +20550,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
@@ -20948,7 +20629,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -21027,7 +20708,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -21106,7 +20787,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
@@ -21185,7 +20866,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -21264,7 +20945,7 @@
         <v>' ~~~~~~~~~~~~~~~~~~ ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -21343,7 +21024,7 @@
         <v>'  ~~~~~~~~~b~~~~~~  ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -21434,7 +21115,7 @@
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -21465,7 +21146,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -21496,7 +21177,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -21527,7 +21208,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -21558,7 +21239,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -21566,7 +21247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -21574,24 +21255,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="74" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21608,15 +21289,15 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>266</v>
       </c>
@@ -21695,7 +21376,7 @@
         <v>'bw                  ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
@@ -21774,7 +21455,7 @@
         <v>'w                   ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -21853,7 +21534,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -21932,7 +21613,7 @@
         <v>'        ***  *** (*\',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -22011,7 +21692,7 @@
         <v>'+H+ w*w             ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -22090,7 +21771,7 @@
         <v>'        ***  *** ***',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
@@ -22169,7 +21850,7 @@
         <v>'*** ***             ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -22248,7 +21929,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
@@ -22327,7 +22008,7 @@
         <v>'T       (*\  *** ***',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -22406,7 +22087,7 @@
         <v>'(*\ ***            T',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
@@ -22485,7 +22166,7 @@
         <v>'        +H+  *** ***',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -22564,7 +22245,7 @@
         <v>'(*\ w*w             ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -22643,7 +22324,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -22722,7 +22403,7 @@
         <v>'        ***  *** ***',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
@@ -22801,7 +22482,7 @@
         <v>'*** ***             ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -22880,7 +22561,7 @@
         <v>'        (*\  (*\ *+*',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>61</v>
       </c>
@@ -22959,7 +22640,7 @@
         <v>'*** ***       /     ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -23038,7 +22719,7 @@
         <v>' /                  ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -23117,7 +22798,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -23196,7 +22877,7 @@
         <v>'          wbw       ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -23287,7 +22968,7 @@
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -23318,7 +22999,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -23349,7 +23030,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -23380,7 +23061,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -23411,7 +23092,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -23419,7 +23100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -23427,24 +23108,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23461,15 +23142,15 @@
       <selection activeCell="Z1" sqref="Z1:Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -23548,7 +23229,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -23627,7 +23308,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -23706,7 +23387,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -23785,7 +23466,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -23864,7 +23545,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -23943,7 +23624,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -24022,7 +23703,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -24101,7 +23782,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -24180,7 +23861,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -24259,7 +23940,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
@@ -24338,7 +24019,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -24417,7 +24098,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -24496,7 +24177,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -24575,7 +24256,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
@@ -24654,7 +24335,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -24733,7 +24414,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -24812,7 +24493,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -24891,7 +24572,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -24970,7 +24651,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -25049,7 +24730,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -25140,7 +24821,7 @@
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -25171,7 +24852,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -25202,7 +24883,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -25233,7 +24914,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -25264,7 +24945,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -25272,7 +24953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -25280,24 +24961,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="113" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="112" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25314,15 +24995,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>266</v>
       </c>
@@ -25401,7 +25082,7 @@
         <v>'b                   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -25480,7 +25161,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -25559,7 +25240,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -25638,7 +25319,7 @@
         <v>'         p    p   p ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -25717,7 +25398,7 @@
         <v>' X   p              ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -25796,7 +25477,7 @@
         <v>'         p    p   H ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -25875,7 +25556,7 @@
         <v>' p   p              ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -25954,7 +25635,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -26033,7 +25714,7 @@
         <v>'         p    0   p ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -26112,7 +25793,7 @@
         <v>' +   p              ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
@@ -26191,7 +25872,7 @@
         <v>'         X    p   p ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -26270,7 +25951,7 @@
         <v>' p   p              ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -26349,7 +26030,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -26428,7 +26109,7 @@
         <v>'         p    p   + ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
@@ -26507,7 +26188,7 @@
         <v>' p   p              ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -26586,7 +26267,7 @@
         <v>'         p    p   p ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -26665,7 +26346,7 @@
         <v>' p   0              ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -26744,7 +26425,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -26823,7 +26504,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -26902,7 +26583,7 @@
         <v>'           b        ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -26993,7 +26674,7 @@
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -27024,7 +26705,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -27055,7 +26736,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -27086,7 +26767,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -27117,7 +26798,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -27125,7 +26806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -27133,24 +26814,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="71" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="70" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27167,15 +26848,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>266</v>
       </c>
@@ -27254,7 +26935,7 @@
         <v>'b                   ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -27333,7 +27014,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -27412,7 +27093,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -27491,7 +27172,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -27570,7 +27251,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -27649,7 +27330,7 @@
         <v>'                  P ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -27728,7 +27409,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -27807,7 +27488,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -27886,7 +27567,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -27965,7 +27646,7 @@
         <v>' P                  ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
@@ -28044,7 +27725,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -28123,7 +27804,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -28202,7 +27883,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -28281,7 +27962,7 @@
         <v>'                  P ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
@@ -28360,7 +28041,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -28439,7 +28120,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -28518,7 +28199,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -28597,7 +28278,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -28676,7 +28357,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -28755,7 +28436,7 @@
         <v>'           b        ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -28846,7 +28527,7 @@
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -28877,7 +28558,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -28908,7 +28589,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -28939,7 +28620,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -28970,7 +28651,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -28978,7 +28659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -28986,24 +28667,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="68" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29021,18 +28702,18 @@
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="16"/>
-    <col min="4" max="4" width="9.109375" style="14"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="16"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
@@ -29055,7 +28736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>165</v>
       </c>
@@ -29086,7 +28767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>166</v>
       </c>
@@ -29117,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>167</v>
       </c>
@@ -29148,7 +28829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -29179,7 +28860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>169</v>
       </c>
@@ -29210,7 +28891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -29241,7 +28922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>172</v>
       </c>
@@ -29272,7 +28953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>173</v>
       </c>
@@ -29303,7 +28984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -29334,7 +29015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>175</v>
       </c>
@@ -29365,7 +29046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>176</v>
       </c>
@@ -29396,7 +29077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>177</v>
       </c>
@@ -29427,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>178</v>
       </c>
@@ -29458,7 +29139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>179</v>
       </c>
@@ -29489,7 +29170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>180</v>
       </c>
@@ -29520,7 +29201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>181</v>
       </c>
@@ -29551,7 +29232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>182</v>
       </c>
@@ -29582,7 +29263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>183</v>
       </c>
@@ -29613,7 +29294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>185</v>
       </c>
@@ -29644,7 +29325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>186</v>
       </c>
@@ -29675,7 +29356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>187</v>
       </c>
@@ -29706,7 +29387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>189</v>
       </c>
@@ -29737,7 +29418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>191</v>
       </c>
@@ -29768,7 +29449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>193</v>
       </c>
@@ -29799,7 +29480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>195</v>
       </c>
@@ -29830,7 +29511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>197</v>
       </c>
@@ -29861,7 +29542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>198</v>
       </c>
@@ -29892,7 +29573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>199</v>
       </c>
@@ -29923,7 +29604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>200</v>
       </c>
@@ -29954,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>202</v>
       </c>
@@ -29985,7 +29666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>254</v>
       </c>
@@ -30016,7 +29697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>204</v>
       </c>
@@ -30047,7 +29728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>206</v>
       </c>
@@ -30078,7 +29759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>208</v>
       </c>
@@ -30109,7 +29790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>210</v>
       </c>
@@ -30140,7 +29821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>211</v>
       </c>
@@ -30171,7 +29852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>212</v>
       </c>
@@ -30202,7 +29883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>213</v>
       </c>
@@ -30233,7 +29914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>214</v>
       </c>
@@ -30264,7 +29945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>215</v>
       </c>
@@ -30295,7 +29976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>216</v>
       </c>
@@ -30326,7 +30007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>217</v>
       </c>
@@ -30357,7 +30038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>218</v>
       </c>
@@ -30388,7 +30069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>220</v>
       </c>
@@ -30419,7 +30100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>221</v>
       </c>
@@ -30450,7 +30131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>222</v>
       </c>
@@ -30481,7 +30162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>55</v>
       </c>
@@ -30512,7 +30193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>223</v>
       </c>
@@ -30543,7 +30224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>224</v>
       </c>
@@ -30574,7 +30255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>225</v>
       </c>
@@ -30605,7 +30286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>226</v>
       </c>
@@ -30636,7 +30317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>227</v>
       </c>
@@ -30667,7 +30348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>228</v>
       </c>
@@ -30698,7 +30379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>229</v>
       </c>
@@ -30729,7 +30410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>230</v>
       </c>
@@ -30760,7 +30441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>231</v>
       </c>
@@ -30791,7 +30472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>232</v>
       </c>
@@ -30822,7 +30503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>233</v>
       </c>
@@ -30853,7 +30534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>234</v>
       </c>
@@ -30884,7 +30565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>235</v>
       </c>
@@ -30915,7 +30596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>236</v>
       </c>
@@ -30946,7 +30627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>237</v>
       </c>
@@ -30977,7 +30658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>238</v>
       </c>
@@ -31008,7 +30689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>239</v>
       </c>
@@ -31039,7 +30720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>240</v>
       </c>
@@ -31070,7 +30751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>241</v>
       </c>
@@ -31101,7 +30782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>242</v>
       </c>
@@ -31132,7 +30813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>243</v>
       </c>
@@ -31163,7 +30844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>244</v>
       </c>
@@ -31194,7 +30875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>245</v>
       </c>
@@ -31225,7 +30906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>246</v>
       </c>
@@ -31256,7 +30937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>247</v>
       </c>
@@ -31287,7 +30968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>248</v>
       </c>
@@ -31318,7 +30999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>249</v>
       </c>
@@ -31349,7 +31030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>251</v>
       </c>
@@ -31380,7 +31061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>252</v>
       </c>
@@ -31417,22 +31098,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31449,15 +31130,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>61</v>
       </c>
@@ -31536,7 +31217,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
@@ -31615,7 +31296,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
@@ -31694,7 +31375,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
@@ -31773,7 +31454,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -31852,7 +31533,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
@@ -31931,7 +31612,7 @@
         <v>'****    ****        ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
@@ -32010,7 +31691,7 @@
         <v>'****    ****        ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -32089,7 +31770,7 @@
         <v>'****    ****        ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>61</v>
       </c>
@@ -32168,7 +31849,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>61</v>
       </c>
@@ -32247,7 +31928,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>61</v>
       </c>
@@ -32326,7 +32007,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>61</v>
       </c>
@@ -32405,7 +32086,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>61</v>
       </c>
@@ -32484,7 +32165,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>61</v>
       </c>
@@ -32563,7 +32244,7 @@
         <v>'************        ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
@@ -32642,7 +32323,7 @@
         <v>'***********^        ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -32721,7 +32402,7 @@
         <v>'&lt;*********^         ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -32800,7 +32481,7 @@
         <v>' &lt;*******^          ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -32879,7 +32560,7 @@
         <v>'  &lt;*****^           ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -32958,7 +32639,7 @@
         <v>'   &lt;***^            ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -33037,7 +32718,7 @@
         <v>'    &lt;*^             ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -33128,7 +32809,7 @@
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -33159,7 +32840,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -33190,7 +32871,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -33221,7 +32902,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -33252,7 +32933,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -33260,7 +32941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -33268,24 +32949,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33302,50 +32983,50 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>6</v>
@@ -33382,16 +33063,16 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">************        </v>
+        <v xml:space="preserve">@@@@@@@@@@@@        </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'************        ',</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@@@@@@@@@@@@        ',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>6</v>
@@ -33424,7 +33105,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>6</v>
@@ -33461,16 +33142,16 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">*          *        </v>
+        <v xml:space="preserve">@          @        </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'*          *        ',</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@          @        ',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>6</v>
@@ -33503,7 +33184,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>6</v>
@@ -33540,16 +33221,16 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*          *        </v>
+        <v xml:space="preserve">@          @        </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'*          *        ',</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@          @        ',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>6</v>
@@ -33582,7 +33263,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>6</v>
@@ -33619,16 +33300,16 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*          *        </v>
+        <v xml:space="preserve">@          @        </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'*          *        ',</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@          @        ',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>6</v>
@@ -33698,16 +33379,16 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*                   </v>
+        <v xml:space="preserve">@                   </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'*                   ',</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@                   ',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -33777,16 +33458,16 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*                   </v>
+        <v xml:space="preserve">@                   </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'*                   ',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@                   ',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -33856,16 +33537,16 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*                   </v>
+        <v xml:space="preserve">@                   </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'*                   ',</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@                   ',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>6</v>
@@ -33935,16 +33616,16 @@
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*                   </v>
+        <v xml:space="preserve">@                   </v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'*                   ',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@                   ',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>6</v>
@@ -34014,16 +33695,16 @@
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*                   </v>
+        <v xml:space="preserve">@                   </v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'*                   ',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@                   ',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>6</v>
@@ -34056,7 +33737,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>6</v>
@@ -34093,16 +33774,16 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*          *        </v>
+        <v xml:space="preserve">@          @        </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'*          *        ',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@          @        ',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>6</v>
@@ -34135,7 +33816,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>6</v>
@@ -34172,16 +33853,16 @@
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*          *        </v>
+        <v xml:space="preserve">@          @        </v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'*          *        ',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@          @        ',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>6</v>
@@ -34214,7 +33895,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>6</v>
@@ -34251,16 +33932,16 @@
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*          *        </v>
+        <v xml:space="preserve">@          @        </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'*          *        ',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@          @        ',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>6</v>
@@ -34293,7 +33974,7 @@
         <v>6</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>6</v>
@@ -34330,16 +34011,16 @@
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*          *        </v>
+        <v xml:space="preserve">@          @        </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'*          *        ',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@          @        ',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>6</v>
@@ -34372,7 +34053,7 @@
         <v>6</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>6</v>
@@ -34409,16 +34090,16 @@
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*          *        </v>
+        <v xml:space="preserve">@          @        </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'*          *        ',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@          @        ',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>6</v>
@@ -34488,14 +34169,14 @@
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*    C              </v>
+        <v xml:space="preserve">@    C              </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'*    C              ',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@    C              ',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -34574,7 +34255,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -34653,7 +34334,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -34732,7 +34413,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -34811,7 +34492,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -34890,7 +34571,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -34981,7 +34662,7 @@
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -35012,7 +34693,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -35043,7 +34724,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -35074,7 +34755,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -35105,7 +34786,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -35113,7 +34794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -35121,24 +34802,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35152,53 +34833,53 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA1:AA20"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>6</v>
@@ -35235,14 +34916,14 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">************        </v>
+        <v xml:space="preserve">@@@@@@@@@@@@        </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'************        ',</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>'@@@@@@@@@@@@        ',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>258</v>
       </c>
@@ -35321,7 +35002,7 @@
         <v>'\          (        ',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>258</v>
       </c>
@@ -35400,7 +35081,7 @@
         <v>'\          (        ',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>258</v>
       </c>
@@ -35479,7 +35160,7 @@
         <v>'\          (        ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>258</v>
       </c>
@@ -35558,7 +35239,7 @@
         <v>'\                   ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
@@ -35637,7 +35318,7 @@
         <v>'\                   ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>258</v>
       </c>
@@ -35716,7 +35397,7 @@
         <v>'\                   ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>258</v>
       </c>
@@ -35795,7 +35476,7 @@
         <v>'\                   ',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>258</v>
       </c>
@@ -35874,7 +35555,7 @@
         <v>'\                   ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>258</v>
       </c>
@@ -35953,7 +35634,7 @@
         <v>'\          (        ',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>258</v>
       </c>
@@ -36032,7 +35713,7 @@
         <v>'\          (        ',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>258</v>
       </c>
@@ -36111,7 +35792,7 @@
         <v>'\          (        ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>258</v>
       </c>
@@ -36190,7 +35871,7 @@
         <v>'\          (        ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>258</v>
       </c>
@@ -36269,7 +35950,7 @@
         <v>'\          (        ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>258</v>
       </c>
@@ -36348,7 +36029,7 @@
         <v>'\    C              ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -36427,7 +36108,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -36506,7 +36187,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -36585,7 +36266,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -36664,7 +36345,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -36743,7 +36424,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COLUMN()</f>
         <v>1</v>
@@ -36834,7 +36515,7 @@
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -36865,7 +36546,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -36896,7 +36577,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -36927,7 +36608,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -36958,7 +36639,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -36966,7 +36647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -36974,24 +36655,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37012,15 +36693,15 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -37095,7 +36776,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -37170,7 +36851,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -37245,7 +36926,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -37320,7 +37001,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -37395,7 +37076,7 @@
         <v>'~~~~~~~~~~~~~~~~l~~~',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -37470,7 +37151,7 @@
         <v>'~~~~~~~~~~~~~~~~ll~~',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -37545,7 +37226,7 @@
         <v>'~~~~~~~~~~~~~~~~~l~~',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -37620,7 +37301,7 @@
         <v>'~~~~~~~~~~~~~~~~~l~~',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -37695,7 +37376,7 @@
         <v>'~~~~~~~~~~~~~~~~ll~~',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -37770,7 +37451,7 @@
         <v>'~~~~~~~~~~~~~~~~l~~~',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -37845,7 +37526,7 @@
         <v>'~~~~~~~~~~~~~~~ll~~~',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -37920,7 +37601,7 @@
         <v>'~~~~~~~~~~~~~~~ll~~~',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -37995,7 +37676,7 @@
         <v>'ll~~~~~~~~~~~~~lll~~',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -38070,7 +37751,7 @@
         <v>'~llll~~~~~~~~~~~lll~',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -38145,7 +37826,7 @@
         <v>'~~l~ll~~~~~~~~~~~~l~',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -38220,7 +37901,7 @@
         <v>'~~~~~l~~~~~~~~~~~~ll',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -38295,7 +37976,7 @@
         <v>'~~~~~~~~~~~~~~~~~~ll',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -38370,7 +38051,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~l',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -38445,7 +38126,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~l',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -38520,7 +38201,7 @@
         <v>'~~~~~~~~~~~~~~~~~~~~',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -38555,7 +38236,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -38590,7 +38271,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -38625,7 +38306,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -38660,7 +38341,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -38695,7 +38376,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -38703,7 +38384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -38711,34 +38392,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="111" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="110" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="109" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="108" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38755,15 +38436,15 @@
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>255</v>
       </c>
@@ -38838,7 +38519,7 @@
         <v>'##############   ###',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>255</v>
       </c>
@@ -38913,7 +38594,7 @@
         <v>'#^   # [   #      &lt;#',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>255</v>
       </c>
@@ -38988,7 +38669,7 @@
         <v>'#  (##     /  0 T  #',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>255</v>
       </c>
@@ -39063,7 +38744,7 @@
         <v>'#    / H H         #',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>255</v>
       </c>
@@ -39138,7 +38819,7 @@
         <v>'##         )       #',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>255</v>
       </c>
@@ -39213,7 +38894,7 @@
         <v>'##   pPp  v#    o  #',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>255</v>
       </c>
@@ -39288,7 +38969,7 @@
         <v>'##)       &lt;##      #',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>255</v>
       </c>
@@ -39363,7 +39044,7 @@
         <v>'###        ##      #',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>255</v>
       </c>
@@ -39438,7 +39119,7 @@
         <v>'####  S    &lt;##\     ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>255</v>
       </c>
@@ -39513,7 +39194,7 @@
         <v>'######\ k   #^     #',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>255</v>
       </c>
@@ -39588,7 +39269,7 @@
         <v>'#^  #^      /      ^',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>255</v>
       </c>
@@ -39663,7 +39344,7 @@
         <v>'#  S/          S    ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -39738,7 +39419,7 @@
         <v>'         )          ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>255</v>
       </c>
@@ -39813,7 +39494,7 @@
         <v>'#       (#\    +   +',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>255</v>
       </c>
@@ -39888,7 +39569,7 @@
         <v>'#        #     )    ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>255</v>
       </c>
@@ -39963,7 +39644,7 @@
         <v>'#]  c    #    (#\   ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>255</v>
       </c>
@@ -40036,7 +39717,7 @@
         <v>'#      v###&gt;   /   ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>255</v>
       </c>
@@ -40111,7 +39792,7 @@
         <v>'#&gt;     #OOO+      s ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>255</v>
       </c>
@@ -40186,7 +39867,7 @@
         <v>'##  S  #OOO+T       ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>255</v>
       </c>
@@ -40261,7 +39942,7 @@
         <v>'#^     &lt;###^   +s   ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -40296,7 +39977,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -40331,7 +40012,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -40366,7 +40047,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -40401,7 +40082,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -40436,7 +40117,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -40444,7 +40125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -40452,34 +40133,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19">
-    <cfRule type="expression" dxfId="107" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19">
-    <cfRule type="cellIs" dxfId="106" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="expression" dxfId="105" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="cellIs" dxfId="104" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40500,15 +40181,15 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>255</v>
       </c>
@@ -40583,7 +40264,7 @@
         <v>'######\   (###   ##&gt;',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>255</v>
       </c>
@@ -40658,7 +40339,7 @@
         <v>'#          0      &lt;#',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -40733,7 +40414,7 @@
         <v>'^    +             ^',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -40808,7 +40489,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -40883,7 +40564,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>257</v>
       </c>
@@ -40958,7 +40639,7 @@
         <v>'&gt;          T        ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>255</v>
       </c>
@@ -41033,7 +40714,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>255</v>
       </c>
@@ -41108,7 +40789,7 @@
         <v>'#                  #',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>255</v>
       </c>
@@ -41183,7 +40864,7 @@
         <v>'#           S       ',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>255</v>
       </c>
@@ -41258,7 +40939,7 @@
         <v>'######      p      #',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>255</v>
       </c>
@@ -41333,7 +41014,7 @@
         <v>'#    ^             ^',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>255</v>
       </c>
@@ -41408,7 +41089,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -41483,7 +41164,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>255</v>
       </c>
@@ -41558,7 +41239,7 @@
         <v>'#        T     (] {\',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>59</v>
       </c>
@@ -41633,7 +41314,7 @@
         <v>'^                   ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -41708,7 +41389,7 @@
         <v>' (]            P    ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -41783,7 +41464,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -41858,7 +41539,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>257</v>
       </c>
@@ -41933,7 +41614,7 @@
         <v>'&gt;              }    ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>59</v>
       </c>
@@ -42008,7 +41689,7 @@
         <v>'^              /    ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -42043,7 +41724,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -42078,7 +41759,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -42113,7 +41794,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -42148,7 +41829,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -42183,7 +41864,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -42191,7 +41872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -42199,34 +41880,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="103" priority="4">
+    <cfRule type="expression" dxfId="51" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="102" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="101" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="100" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42243,15 +41924,15 @@
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>255</v>
       </c>
@@ -42326,7 +42007,7 @@
         <v>'#####+     +#######&gt;',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>255</v>
       </c>
@@ -42401,7 +42082,7 @@
         <v>'#                 &lt;#',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -42476,7 +42157,7 @@
         <v>'^                  ^',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -42551,7 +42232,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -42626,7 +42307,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>257</v>
       </c>
@@ -42701,7 +42382,7 @@
         <v>'&gt;                   ',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>255</v>
       </c>
@@ -42776,7 +42457,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>255</v>
       </c>
@@ -42851,7 +42532,7 @@
         <v>'#                  +',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>255</v>
       </c>
@@ -42926,7 +42607,7 @@
         <v>'#                  #',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>255</v>
       </c>
@@ -43001,7 +42682,7 @@
         <v>'######             #',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>255</v>
       </c>
@@ -43076,7 +42757,7 @@
         <v>'#    ^             ^',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>255</v>
       </c>
@@ -43151,7 +42832,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>255</v>
       </c>
@@ -43226,7 +42907,7 @@
         <v>'#                   ',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>255</v>
       </c>
@@ -43301,7 +42982,7 @@
         <v>'#               (+\ ',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>59</v>
       </c>
@@ -43376,7 +43057,7 @@
         <v>'^                   ',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -43451,7 +43132,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -43526,7 +43207,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -43601,7 +43282,7 @@
         <v>'                    ',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>257</v>
       </c>
@@ -43676,7 +43357,7 @@
         <v>'&gt;               /   ',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>59</v>
       </c>
@@ -43751,7 +43432,7 @@
         <v>'^                   ',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -43786,7 +43467,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -43821,7 +43502,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -43856,7 +43537,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -43891,7 +43572,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -43926,7 +43607,7 @@
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -43934,7 +43615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -43942,34 +43623,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="99" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="98" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="96" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9568" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9565" uniqueCount="286">
   <si>
     <t>width</t>
   </si>
@@ -2039,9 +2039,6 @@
   <si>
     <t>@</t>
   </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
 </sst>
 </file>
 
@@ -2267,203 +2264,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill>
@@ -5716,12 +5517,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="94" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="93" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7447,22 +7248,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19">
-    <cfRule type="expression" dxfId="80" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19">
-    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9194,22 +8995,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="76" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="75" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="74" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="73" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10937,22 +10738,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="71" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12680,22 +12481,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="67" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14423,12 +14224,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16156,12 +15957,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17889,12 +17690,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19622,22 +19423,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21365,12 +21166,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23098,12 +22899,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24951,12 +24752,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="92" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="91" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26682,12 +26483,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28535,12 +28336,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30388,12 +30189,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32241,12 +32042,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34094,12 +33895,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36513,22 +36314,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36541,8 +36342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37062,7 +36863,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>25</v>
@@ -37099,11 +36900,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ~C~     ~~~~~~~~</v>
+        <v xml:space="preserve">    ~C~    ~~~~~~~~~</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'    ~C~     ~~~~~~~~',</v>
+        <v>'    ~C~    ~~~~~~~~~',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -37670,7 +37471,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>6</v>
@@ -37731,11 +37532,11 @@
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ~~~~~~~~~~~</v>
+        <v xml:space="preserve">         ~~~~~~~~~~~</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'          ~~~~~~~~~~~',</v>
+        <v>'         ~~~~~~~~~~~',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -38376,25 +38177,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y5 A6:D8 H6:Y8 A9:Y25">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z5 A6:D8 H6:Z8 A9:Z25">
-    <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA20">
-    <cfRule type="uniqueValues" dxfId="30" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G8">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G8">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38407,8 +38208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38611,8 +38412,8 @@
       <c r="K3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>6</v>
+      <c r="L3" s="12">
+        <v>1</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>6</v>
@@ -38649,11 +38450,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          *         </v>
+        <v xml:space="preserve">          *1        </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'          *         ',</v>
+        <v>'          *1        ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -38703,7 +38504,7 @@
         <v>6</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>6</v>
@@ -38728,11 +38529,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">           *        </v>
+        <v xml:space="preserve">           *   H    </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'           *        ',</v>
+        <v>'           *   H    ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -38925,10 +38726,10 @@
         <v>6</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>61</v>
+        <v>61</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>6</v>
@@ -38965,11 +38766,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">   * C *   *        </v>
+        <v xml:space="preserve">   * C *  *1        </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'   * C *   *        ',</v>
+        <v>'   * C *  *1        ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -39095,13 +38896,13 @@
         <v>6</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>6</v>
+        <v>257</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>6</v>
@@ -39123,11 +38924,11 @@
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">   *****   *        </v>
+        <v xml:space="preserve">   *****   *  **&gt;   </v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'   *****   *        ',</v>
+        <v>'   *****   *  **&gt;   ',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -39174,13 +38975,13 @@
         <v>6</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>6</v>
@@ -39202,11 +39003,11 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">           *        </v>
+        <v xml:space="preserve">           *  *CT   </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'           *        ',</v>
+        <v>'           *  *CT   ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -39253,13 +39054,13 @@
         <v>6</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>6</v>
@@ -39281,11 +39082,11 @@
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          **        </v>
+        <v xml:space="preserve">          **  **^   </v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'          **        ',</v>
+        <v>'          **  **^   ',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -39645,7 +39446,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>6</v>
@@ -39676,11 +39477,11 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">&lt;** ***  *^         </v>
+        <v xml:space="preserve">&lt;** ***  *^  p      </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'&lt;** ***  *^         ',</v>
+        <v>'&lt;** ***  *^  p      ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -39733,7 +39534,7 @@
         <v>6</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>6</v>
@@ -39755,11 +39556,11 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;**    *^w         </v>
+        <v xml:space="preserve"> &lt;**    *^w     H   </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>' &lt;**    *^w         ',</v>
+        <v>' &lt;**    *^w     H   ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -39875,8 +39676,8 @@
       <c r="K19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="12" t="s">
-        <v>6</v>
+      <c r="L19" s="12">
+        <v>1</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>6</v>
@@ -39913,11 +39714,11 @@
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">   &lt;***^w           </v>
+        <v xml:space="preserve">   &lt;***^w  1        </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'   &lt;***^w           ',</v>
+        <v>'   &lt;***^w  1        ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -40242,12 +40043,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40261,7 +40062,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G8"/>
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41030,7 +40831,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -41055,11 +40856,11 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">************        </v>
+        <v xml:space="preserve">************   C    </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'************        ',</v>
+        <v>'************   C    ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -42095,12 +41896,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42114,7 +41915,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42601,7 +42402,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -42671,11 +42472,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">     C              </v>
+        <v xml:space="preserve">T    C              </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'     C              ',</v>
+        <v>'T    C              ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -42883,7 +42684,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -42908,11 +42709,11 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">@          @        </v>
+        <v xml:space="preserve">@          @   C    </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'@          @        ',</v>
+        <v>'@          @   C    ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -43948,12 +43749,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="88" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="87" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44736,7 +44537,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -44761,11 +44562,11 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">\          (        </v>
+        <v xml:space="preserve">\          (   C    </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'\          (        ',</v>
+        <v>'\          (   C    ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -45801,12 +45602,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="85" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46592,7 +46393,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -46617,11 +46418,11 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               C    </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'               C    ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -47657,12 +47458,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49390,22 +49191,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="84" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="83" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="81" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12393" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12413" uniqueCount="291">
   <si>
     <t>width</t>
   </si>
@@ -2049,6 +2049,18 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>*    *        *    *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pT   p              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p    p              </t>
+  </si>
 </sst>
 </file>
 
@@ -2275,6 +2287,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="151">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2699,20 +2725,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -51671,7 +51683,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51729,16 +51741,16 @@
         <v>61</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>61</v>
@@ -51754,11 +51766,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>******        *    *</v>
+        <v>******        ******</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'******        *    *',</v>
+        <v>'******        ******',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -51805,7 +51817,7 @@
         <v>6</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>6</v>
@@ -51820,7 +51832,7 @@
         <v>6</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -51833,11 +51845,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">*    *              </v>
+        <v>*    *        *    *</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'*    *              ',</v>
+        <v>'*    *        *    *',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -51884,7 +51896,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>6</v>
@@ -51899,7 +51911,7 @@
         <v>6</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -51912,11 +51924,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*    *              </v>
+        <v>*    *        *    *</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *              ',</v>
+        <v>'*    *        *    *',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -51963,7 +51975,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>6</v>
@@ -51978,7 +51990,7 @@
         <v>6</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -51991,11 +52003,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*    *              </v>
+        <v>*    *        *    *</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *              ',</v>
+        <v>'*    *        *    *',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -52042,7 +52054,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>6</v>
@@ -52057,7 +52069,7 @@
         <v>6</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -52070,11 +52082,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*    *              </v>
+        <v>*    *        *    *</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *              ',</v>
+        <v>'*    *        *    *',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -52124,16 +52136,16 @@
         <v>61</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>61</v>
@@ -52149,11 +52161,11 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>******        *    *</v>
+        <v>******        ******</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'******        *    *',</v>
+        <v>'******        ******',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -53505,12 +53517,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53524,7 +53536,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA1:AA20"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55378,22 +55390,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T6">
-    <cfRule type="expression" dxfId="43" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T6">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F6">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F6">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55407,7 +55419,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G14"/>
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55488,9 +55500,8 @@
         <f>ROW()</f>
         <v>1</v>
       </c>
-      <c r="AA1" t="str">
-        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>*    *        *    *</v>
+      <c r="AA1" t="s">
+        <v>287</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
@@ -55567,12 +55578,11 @@
         <f>ROW()</f>
         <v>2</v>
       </c>
-      <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">                    </v>
+      <c r="AA2" t="s">
+        <v>288</v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
+        <f t="shared" ref="AB2:AB20" si="0">"'"&amp;AA2&amp;"',"</f>
         <v>'                    ',</v>
       </c>
     </row>
@@ -55646,12 +55656,11 @@
         <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AA3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA3" t="s">
+        <v>288</v>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -55725,12 +55734,11 @@
         <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA4" t="s">
+        <v>288</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -55804,12 +55812,11 @@
         <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA5" t="s">
+        <v>288</v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -55883,12 +55890,11 @@
         <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AA6" t="str">
-        <f t="shared" si="0"/>
-        <v>*    *        *    *</v>
+      <c r="AA6" t="s">
+        <v>287</v>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'*    *        *    *',</v>
       </c>
     </row>
@@ -55962,12 +55968,11 @@
         <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA7" t="s">
+        <v>288</v>
       </c>
       <c r="AB7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56041,12 +56046,11 @@
         <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AA8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA8" t="s">
+        <v>288</v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56120,12 +56124,11 @@
         <f>ROW()</f>
         <v>9</v>
       </c>
-      <c r="AA9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA9" t="s">
+        <v>288</v>
       </c>
       <c r="AB9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56199,12 +56202,11 @@
         <f>ROW()</f>
         <v>10</v>
       </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA10" t="s">
+        <v>288</v>
       </c>
       <c r="AB10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56278,12 +56280,11 @@
         <f>ROW()</f>
         <v>11</v>
       </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA11" t="s">
+        <v>288</v>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56357,12 +56358,11 @@
         <f>ROW()</f>
         <v>12</v>
       </c>
-      <c r="AA12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA12" t="s">
+        <v>288</v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56436,12 +56436,11 @@
         <f>ROW()</f>
         <v>13</v>
       </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA13" t="s">
+        <v>288</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56515,12 +56514,11 @@
         <f>ROW()</f>
         <v>14</v>
       </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA14" t="s">
+        <v>288</v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56594,12 +56592,11 @@
         <f>ROW()</f>
         <v>15</v>
       </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">pT   p              </v>
+      <c r="AA15" t="s">
+        <v>289</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'pT   p              ',</v>
       </c>
     </row>
@@ -56673,12 +56670,11 @@
         <f>ROW()</f>
         <v>16</v>
       </c>
-      <c r="AA16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA16" t="s">
+        <v>288</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56752,12 +56748,11 @@
         <f>ROW()</f>
         <v>17</v>
       </c>
-      <c r="AA17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA17" t="s">
+        <v>288</v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56831,12 +56826,11 @@
         <f>ROW()</f>
         <v>18</v>
       </c>
-      <c r="AA18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA18" t="s">
+        <v>288</v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56910,12 +56904,11 @@
         <f>ROW()</f>
         <v>19</v>
       </c>
-      <c r="AA19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+      <c r="AA19" t="s">
+        <v>288</v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56989,12 +56982,11 @@
         <f>ROW()</f>
         <v>20</v>
       </c>
-      <c r="AA20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">p    p              </v>
+      <c r="AA20" t="s">
+        <v>290</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'p    p              ',</v>
       </c>
     </row>
@@ -57085,7 +57077,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
       <c r="AA21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A21,B21,C21,D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,S21,T21,U21,V21,W21,X21,Y21)</f>
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
@@ -57116,7 +57108,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
       <c r="AA22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -57147,7 +57139,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
       <c r="AA23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -57178,7 +57170,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
       <c r="AA24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -57209,7 +57201,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
       <c r="AA25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -57256,17 +57248,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T6">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T6">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59144,32 +59136,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12413" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12396" uniqueCount="287">
   <si>
     <t>width</t>
   </si>
@@ -2049,18 +2049,6 @@
   <si>
     <t>t</t>
   </si>
-  <si>
-    <t>*    *        *    *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pT   p              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">p    p              </t>
-  </si>
 </sst>
 </file>
 
@@ -2286,427 +2274,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="151">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="125">
     <dxf>
       <fill>
         <patternFill>
@@ -3347,6 +2915,244 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6127,12 +5933,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="150" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="149" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7980,25 +7786,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y5 A6:D8 H6:Y8 A9:Y25">
-    <cfRule type="expression" dxfId="146" priority="5">
+    <cfRule type="expression" dxfId="86" priority="5">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z5 A6:D8 H6:Z8 A9:Z25">
-    <cfRule type="cellIs" dxfId="145" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="4" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA20">
-    <cfRule type="uniqueValues" dxfId="144" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="84" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G8">
-    <cfRule type="expression" dxfId="143" priority="2">
+    <cfRule type="expression" dxfId="83" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G8">
-    <cfRule type="cellIs" dxfId="142" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9846,12 +9652,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="141" priority="2">
+    <cfRule type="expression" dxfId="81" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="140" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11699,12 +11505,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="139" priority="2">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="138" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13552,12 +13358,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="137" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="136" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15405,12 +15211,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="135" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="134" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17261,12 +17067,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="133" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="132" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18994,22 +18800,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="131" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="130" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="129" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="128" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20735,22 +20541,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19">
-    <cfRule type="expression" dxfId="127" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19">
-    <cfRule type="cellIs" dxfId="126" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="expression" dxfId="125" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="cellIs" dxfId="124" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22482,22 +22288,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="123" priority="4">
+    <cfRule type="expression" dxfId="63" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="122" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="121" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="120" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24225,22 +24031,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="119" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="118" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="117" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="116" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26088,12 +25894,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="148" priority="2">
+    <cfRule type="expression" dxfId="122" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="147" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27821,22 +27627,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="115" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="114" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="113" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="112" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29564,12 +29370,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="111" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="110" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31297,12 +31103,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="109" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="108" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33030,12 +32836,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="107" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="106" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34763,22 +34569,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="105" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="104" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="103" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="102" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36506,12 +36312,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="101" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="100" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38239,12 +38045,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="99" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="98" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39970,12 +39776,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="96" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41823,12 +41629,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="95" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="94" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43676,12 +43482,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="93" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="92" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43694,8 +43500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA1:AA20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43762,10 +43568,10 @@
         <v>25</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -43778,11 +43584,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v xml:space="preserve">~~~~~~~~~~~~~~~~~~  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'~~~~~~~~~~~~~~~~~~  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -43790,19 +43596,19 @@
         <v>25</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>25</v>
@@ -43826,16 +43632,16 @@
         <v>25</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>25</v>
@@ -43844,7 +43650,7 @@
         <v>25</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -43857,11 +43663,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v xml:space="preserve">~lllll~~~~~~~llll~~ </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'~lllll~~~~~~~llll~~ ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -43869,19 +43675,19 @@
         <v>25</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>25</v>
@@ -43905,16 +43711,16 @@
         <v>25</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>25</v>
@@ -43923,7 +43729,7 @@
         <v>25</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -43936,11 +43742,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v xml:space="preserve">~lllll~~~~~~~llll~~ </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'~lllll~~~~~~~llll~~ ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -43948,19 +43754,19 @@
         <v>25</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>25</v>
@@ -43984,16 +43790,16 @@
         <v>25</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>25</v>
@@ -44015,11 +43821,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v>~lllll~~~~~~~llll~~~</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'~lllll~~~~~~~llll~~~',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -44027,19 +43833,19 @@
         <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>25</v>
@@ -44063,16 +43869,16 @@
         <v>25</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>25</v>
@@ -44094,11 +43900,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v>~lllll~~~~~~~llll~~~</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'~lllll~~~~~~~llll~~~',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -44106,19 +43912,19 @@
         <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>25</v>
@@ -44142,16 +43948,16 @@
         <v>25</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>25</v>
@@ -44173,11 +43979,11 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v>~lllll~~~~~~~llll~~~</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'~lllll~~~~~~~llll~~~',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -45108,7 +44914,7 @@
         <v>25</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -45121,19 +44927,19 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v xml:space="preserve">~~~~~~~~~~~~~~~~~~~ </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'~~~~~~~~~~~~~~~~~~~ ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>25</v>
@@ -45187,7 +44993,7 @@
         <v>25</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -45200,22 +45006,22 @@
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v xml:space="preserve">  ~~~~~~~~~~~~~~~~~ </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'  ~~~~~~~~~~~~~~~~~ ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>25</v>
@@ -45260,13 +45066,13 @@
         <v>25</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -45279,11 +45085,11 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~~~~~</v>
+        <v xml:space="preserve">   ~~~~~~~~~~~~~~   </v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~~~~~',</v>
+        <v>'   ~~~~~~~~~~~~~~   ',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -45529,12 +45335,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="120" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="74" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47382,12 +47188,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="90" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49235,12 +49041,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="88" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51654,22 +51460,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51696,7 +51502,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>61</v>
@@ -51714,7 +51520,7 @@
         <v>61</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -51732,10 +51538,10 @@
         <v>6</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>61</v>
@@ -51747,13 +51553,13 @@
         <v>61</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -51766,11 +51572,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>******        ******</v>
+        <v xml:space="preserve">H*****H     H****H  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'******        ******',</v>
+        <v>'H*****H     H****H  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -51790,10 +51596,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
@@ -51811,13 +51617,13 @@
         <v>6</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>6</v>
@@ -51826,13 +51632,13 @@
         <v>6</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -51845,11 +51651,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>*    *        *    *</v>
+        <v xml:space="preserve">*     *     *    *  </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'*    *        *    *',</v>
+        <v>'*     *     *    *  ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -51869,10 +51675,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>6</v>
@@ -51890,13 +51696,13 @@
         <v>6</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>6</v>
@@ -51905,13 +51711,13 @@
         <v>6</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -51924,11 +51730,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>*    *        *    *</v>
+        <v xml:space="preserve">*     *     *    *  </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *        *    *',</v>
+        <v>'*     *     *    *  ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -51948,10 +51754,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -51969,13 +51775,13 @@
         <v>6</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>6</v>
@@ -51984,13 +51790,13 @@
         <v>6</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -52003,11 +51809,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>*    *        *    *</v>
+        <v xml:space="preserve">*     *     *    *  </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *        *    *',</v>
+        <v>'*     *     *    *  ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -52027,10 +51833,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -52048,13 +51854,13 @@
         <v>6</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>6</v>
@@ -52063,13 +51869,13 @@
         <v>6</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -52082,11 +51888,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>*    *        *    *</v>
+        <v xml:space="preserve">*     *     *    *  </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *        *    *',</v>
+        <v>'*     *     *    *  ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -52094,22 +51900,22 @@
         <v>61</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>6</v>
@@ -52127,28 +51933,28 @@
         <v>6</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>61</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -52161,34 +51967,34 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>******        ******</v>
+        <v xml:space="preserve">*     *     *    *  </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'******        ******',</v>
+        <v>'*     *     *    *  ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>6</v>
@@ -52206,22 +52012,22 @@
         <v>6</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>6</v>
@@ -52240,11 +52046,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">H*****H     H****H  </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'H*****H     H****H  ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -52580,7 +52386,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>6</v>
@@ -52598,22 +52404,22 @@
         <v>6</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>6</v>
@@ -52635,11 +52441,11 @@
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">     H     H@@@@H   </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'     H     H@@@@H   ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -52677,22 +52483,22 @@
         <v>6</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>6</v>
@@ -52714,11 +52520,11 @@
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">           @@@@@@   </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'           @@@@@@   ',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -52756,22 +52562,22 @@
         <v>6</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>6</v>
@@ -52793,16 +52599,16 @@
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">           @@@@@@   </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'           @@@@@@   ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>6</v>
@@ -52817,7 +52623,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>6</v>
@@ -52835,31 +52641,31 @@
         <v>6</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -52872,11 +52678,11 @@
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>*    *        ******</v>
+        <v xml:space="preserve">           @@@@@@   </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *        ******',</v>
+        <v>'           @@@@@@   ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -52914,31 +52720,31 @@
         <v>6</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -52951,16 +52757,16 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">              ******</v>
+        <v xml:space="preserve">           @@@@@@   </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'              ******',</v>
+        <v>'           @@@@@@   ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>6</v>
@@ -52975,7 +52781,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>6</v>
@@ -52993,31 +52799,31 @@
         <v>6</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -53030,11 +52836,11 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">              ******</v>
+        <v xml:space="preserve">H    H     H@@@@H   </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'              ******',</v>
+        <v>'H    H     H@@@@H   ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -53081,22 +52887,22 @@
         <v>6</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -53109,11 +52915,11 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">              ******</v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'              ******',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -53160,22 +52966,22 @@
         <v>6</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -53188,16 +52994,16 @@
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">              ******</v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'              ******',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>6</v>
@@ -53212,7 +53018,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>6</v>
@@ -53239,22 +53045,22 @@
         <v>6</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -53267,11 +53073,11 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>*    *        ******</v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *        ******',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -53343,17 +53149,14 @@
         <f>COLUMN()</f>
         <v>17</v>
       </c>
-      <c r="R21" s="5">
-        <f>COLUMN()</f>
-        <v>18</v>
-      </c>
-      <c r="S21" s="5">
-        <f>COLUMN()</f>
-        <v>19</v>
-      </c>
-      <c r="T21" s="5">
-        <f>COLUMN()</f>
-        <v>20</v>
+      <c r="R21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -53362,7 +53165,7 @@
       <c r="Y21" s="7"/>
       <c r="AA21" t="str">
         <f t="shared" si="0"/>
-        <v>1234567891011121314151617181920</v>
+        <v xml:space="preserve">1234567891011121314151617   </v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -53517,12 +53320,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="118" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53535,8 +53338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53564,10 +53367,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -53585,13 +53388,13 @@
         <v>6</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>6</v>
@@ -53600,13 +53403,13 @@
         <v>6</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -53619,11 +53422,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>*    *        *    *</v>
+        <v xml:space="preserve">*     *     *    *  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'*    *        *    *',</v>
+        <v>'*     *     *    *  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -53646,7 +53449,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
@@ -53698,11 +53501,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -53725,7 +53528,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>6</v>
@@ -53777,11 +53580,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -53804,7 +53607,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -53856,11 +53659,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -53883,7 +53686,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -53935,16 +53738,16 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -53959,10 +53762,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>6</v>
@@ -53986,7 +53789,7 @@
         <v>6</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>6</v>
@@ -54001,7 +53804,7 @@
         <v>6</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -54014,34 +53817,34 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>*    *        *    *</v>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *        *    *',</v>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>6</v>
@@ -54059,7 +53862,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>6</v>
@@ -54074,7 +53877,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>6</v>
@@ -54093,11 +53896,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">*iiiii*     *    *  </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'*iiiii*     *    *  ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -54418,22 +54221,22 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>6</v>
@@ -54451,7 +54254,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>6</v>
@@ -54466,7 +54269,7 @@
         <v>6</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>6</v>
@@ -54488,31 +54291,31 @@
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">H****H     p    p   </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'H****H     p    p   ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>6</v>
@@ -54567,31 +54370,31 @@
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">******              </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'******              ',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>6</v>
@@ -54646,11 +54449,11 @@
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">******              </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'******              ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -54697,13 +54500,13 @@
         <v>6</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>6</v>
@@ -54712,7 +54515,7 @@
         <v>6</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -54725,11 +54528,11 @@
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>******        p    p</v>
+        <v xml:space="preserve">******          T   </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'******        p    p',</v>
+        <v>'******          T   ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -54813,7 +54616,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>61</v>
@@ -54828,7 +54631,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>6</v>
@@ -54846,7 +54649,7 @@
         <v>6</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>6</v>
@@ -54861,7 +54664,7 @@
         <v>6</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>6</v>
@@ -54883,31 +54686,31 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">H****H     p    p   </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'******              ',</v>
+        <v>'H****H     p    p   ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>6</v>
@@ -54949,7 +54752,7 @@
         <v>6</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -54962,31 +54765,31 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>******             T</v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'******             T',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>6</v>
@@ -55041,31 +54844,31 @@
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'******              ',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>6</v>
@@ -55092,7 +54895,7 @@
         <v>6</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>6</v>
@@ -55107,7 +54910,7 @@
         <v>6</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -55120,11 +54923,11 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>******        p    p</v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'******        p    p',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -55369,43 +55172,43 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:Y14 A21:Y25 G15:Y20 G1:N6 U1:Y6">
-    <cfRule type="expression" dxfId="79" priority="8">
+  <conditionalFormatting sqref="A7:Y14 A21:Y25 G1:N6 G6:G7 S1:Y6 M5:N7 L12:Q17 G15:Y20 A18:F20">
+    <cfRule type="expression" dxfId="116" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:Z14 A21:Z25 G15:Z20 G1:N6 U1:Z6">
-    <cfRule type="cellIs" dxfId="78" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A7:Z14 A21:Z25 G1:N6 G6:G7 S1:Z6 M5:N7 L12:Q17 G15:Z20 A18:F20">
+    <cfRule type="cellIs" dxfId="115" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:F20">
-    <cfRule type="expression" dxfId="67" priority="6">
+  <conditionalFormatting sqref="A12:F17">
+    <cfRule type="expression" dxfId="114" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:F20">
-    <cfRule type="cellIs" dxfId="66" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A12:F17">
+    <cfRule type="cellIs" dxfId="113" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T6">
-    <cfRule type="expression" dxfId="45" priority="4">
+  <conditionalFormatting sqref="M1:R7">
+    <cfRule type="expression" dxfId="112" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T6">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="M1:R7">
+    <cfRule type="cellIs" dxfId="111" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F6">
-    <cfRule type="expression" dxfId="41" priority="2">
+  <conditionalFormatting sqref="A1:G7">
+    <cfRule type="expression" dxfId="110" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F6">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:G7">
+    <cfRule type="cellIs" dxfId="109" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55419,7 +55222,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA1:AA20"/>
+      <selection activeCell="B39" sqref="B39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55447,10 +55250,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -55468,13 +55271,13 @@
         <v>6</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>6</v>
@@ -55483,13 +55286,13 @@
         <v>6</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -55500,12 +55303,13 @@
         <f>ROW()</f>
         <v>1</v>
       </c>
-      <c r="AA1" t="s">
-        <v>287</v>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v xml:space="preserve">*     *     *    *  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'*    *        *    *',</v>
+        <v>'*     *     *    *  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -55528,7 +55332,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
@@ -55578,12 +55382,13 @@
         <f>ROW()</f>
         <v>2</v>
       </c>
-      <c r="AA2" t="s">
-        <v>288</v>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA20" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB20" si="0">"'"&amp;AA2&amp;"',"</f>
-        <v>'                    ',</v>
+        <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -55606,7 +55411,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>6</v>
@@ -55656,12 +55461,13 @@
         <f>ROW()</f>
         <v>3</v>
       </c>
-      <c r="AA3" t="s">
-        <v>288</v>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" si="0"/>
-        <v>'                    ',</v>
+        <f t="shared" si="1"/>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -55684,7 +55490,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -55734,12 +55540,13 @@
         <f>ROW()</f>
         <v>4</v>
       </c>
-      <c r="AA4" t="s">
-        <v>288</v>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" si="0"/>
-        <v>'                    ',</v>
+        <f t="shared" si="1"/>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -55762,7 +55569,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -55812,17 +55619,18 @@
         <f>ROW()</f>
         <v>5</v>
       </c>
-      <c r="AA5" t="s">
-        <v>288</v>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" si="0"/>
-        <v>'                    ',</v>
+        <f t="shared" si="1"/>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -55837,10 +55645,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>6</v>
@@ -55864,7 +55672,7 @@
         <v>6</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>6</v>
@@ -55879,7 +55687,7 @@
         <v>6</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -55890,35 +55698,36 @@
         <f>ROW()</f>
         <v>6</v>
       </c>
-      <c r="AA6" t="s">
-        <v>287</v>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      i             </v>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" si="0"/>
-        <v>'*    *        *    *',</v>
+        <f t="shared" si="1"/>
+        <v>'      i             ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>6</v>
@@ -55936,7 +55745,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>6</v>
@@ -55951,7 +55760,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>6</v>
@@ -55968,12 +55777,13 @@
         <f>ROW()</f>
         <v>7</v>
       </c>
-      <c r="AA7" t="s">
-        <v>288</v>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">*iiiii*     *    *  </v>
       </c>
       <c r="AB7" t="str">
-        <f t="shared" si="0"/>
-        <v>'                    ',</v>
+        <f t="shared" si="1"/>
+        <v>'*iiiii*     *    *  ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -56046,11 +55856,12 @@
         <f>ROW()</f>
         <v>8</v>
       </c>
-      <c r="AA8" t="s">
-        <v>288</v>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56124,11 +55935,12 @@
         <f>ROW()</f>
         <v>9</v>
       </c>
-      <c r="AA9" t="s">
-        <v>288</v>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56202,11 +56014,12 @@
         <f>ROW()</f>
         <v>10</v>
       </c>
-      <c r="AA10" t="s">
-        <v>288</v>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56280,20 +56093,21 @@
         <f>ROW()</f>
         <v>11</v>
       </c>
-      <c r="AA11" t="s">
-        <v>288</v>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>6</v>
@@ -56305,7 +56119,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>6</v>
@@ -56358,12 +56172,13 @@
         <f>ROW()</f>
         <v>12</v>
       </c>
-      <c r="AA12" t="s">
-        <v>288</v>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">pT   p              </v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="0"/>
-        <v>'                    ',</v>
+        <f t="shared" si="1"/>
+        <v>'pT   p              ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -56436,11 +56251,12 @@
         <f>ROW()</f>
         <v>13</v>
       </c>
-      <c r="AA13" t="s">
-        <v>288</v>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56514,20 +56330,21 @@
         <f>ROW()</f>
         <v>14</v>
       </c>
-      <c r="AA14" t="s">
-        <v>288</v>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>6</v>
@@ -56539,7 +56356,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>6</v>
@@ -56592,12 +56409,13 @@
         <f>ROW()</f>
         <v>15</v>
       </c>
-      <c r="AA15" t="s">
-        <v>289</v>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="0"/>
-        <v>'pT   p              ',</v>
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -56670,17 +56488,18 @@
         <f>ROW()</f>
         <v>16</v>
       </c>
-      <c r="AA16" t="s">
-        <v>288</v>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>6</v>
@@ -56695,7 +56514,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>6</v>
@@ -56748,12 +56567,13 @@
         <f>ROW()</f>
         <v>17</v>
       </c>
-      <c r="AA17" t="s">
-        <v>288</v>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">p    p              </v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="0"/>
-        <v>'                    ',</v>
+        <f t="shared" si="1"/>
+        <v>'p    p              ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -56826,11 +56646,12 @@
         <f>ROW()</f>
         <v>18</v>
       </c>
-      <c r="AA18" t="s">
-        <v>288</v>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
@@ -56904,17 +56725,18 @@
         <f>ROW()</f>
         <v>19</v>
       </c>
-      <c r="AA19" t="s">
-        <v>288</v>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'                    ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>6</v>
@@ -56929,7 +56751,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>6</v>
@@ -56982,12 +56804,13 @@
         <f>ROW()</f>
         <v>20</v>
       </c>
-      <c r="AA20" t="s">
-        <v>290</v>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="0"/>
-        <v>'p    p              ',</v>
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -57077,7 +56900,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
       <c r="AA21" t="str">
-        <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A21,B21,C21,D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,S21,T21,U21,V21,W21,X21,Y21)</f>
+        <f t="shared" ref="AA21:AA25" si="2">CONCATENATE(A21,B21,C21,D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,S21,T21,U21,V21,W21,X21,Y21)</f>
         <v>1234567891011121314151617181920</v>
       </c>
     </row>
@@ -57108,7 +56931,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
       <c r="AA22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -57139,7 +56962,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
       <c r="AA23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -57170,7 +56993,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
       <c r="AA24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -57201,7 +57024,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
       <c r="AA25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -57232,33 +57055,63 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:N5 A6:N6 U1:Y6 A7:Y25">
-    <cfRule type="expression" dxfId="73" priority="8">
+  <conditionalFormatting sqref="U1:Y6 F1:N5 A6:N6 A7:Y25 M1:O7">
+    <cfRule type="expression" dxfId="108" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:N5 A6:N6 U1:Z6 A7:Z25">
-    <cfRule type="cellIs" dxfId="72" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="U1:Z6 F1:N5 A6:N6 A7:Z25 M1:O7">
+    <cfRule type="cellIs" dxfId="107" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="106" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="cellIs" dxfId="62" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T6">
-    <cfRule type="expression" dxfId="31" priority="2">
+  <conditionalFormatting sqref="L1:T6 M6:R7">
+    <cfRule type="expression" dxfId="104" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T6">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L1:T6 M6:R7">
+    <cfRule type="cellIs" dxfId="103" priority="7" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F5">
+    <cfRule type="expression" dxfId="23" priority="6">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F5">
+    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:E6">
+    <cfRule type="expression" dxfId="21" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:E6">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57300,10 +57153,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -57321,10 +57174,10 @@
         <v>6</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>61</v>
@@ -57336,13 +57189,13 @@
         <v>61</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -57355,11 +57208,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>*    *        ******</v>
+        <v xml:space="preserve">*     *     H****H  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'*    *        ******',</v>
+        <v>'*     *     H****H  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -57382,7 +57235,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
@@ -57400,10 +57253,10 @@
         <v>6</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>61</v>
@@ -57418,10 +57271,10 @@
         <v>61</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -57434,11 +57287,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">              ******</v>
+        <v xml:space="preserve">      i     ******  </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'              ******',</v>
+        <v>'      i     ******  ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -57461,7 +57314,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>6</v>
@@ -57479,10 +57332,10 @@
         <v>6</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>61</v>
@@ -57497,10 +57350,10 @@
         <v>61</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -57513,11 +57366,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">              ******</v>
+        <v xml:space="preserve">      i     ******  </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'              ******',</v>
+        <v>'      i     ******  ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -57540,7 +57393,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -57558,10 +57411,10 @@
         <v>6</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>61</v>
@@ -57576,10 +57429,10 @@
         <v>61</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -57592,11 +57445,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">              ******</v>
+        <v xml:space="preserve">      i     ******  </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'              ******',</v>
+        <v>'      i     ******  ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -57619,7 +57472,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -57637,10 +57490,10 @@
         <v>6</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>61</v>
@@ -57655,10 +57508,10 @@
         <v>61</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -57671,16 +57524,16 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">              ******</v>
+        <v xml:space="preserve">      i     ******  </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'              ******',</v>
+        <v>'      i     ******  ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -57695,10 +57548,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>6</v>
@@ -57716,10 +57569,10 @@
         <v>6</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>61</v>
@@ -57734,10 +57587,10 @@
         <v>61</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -57750,34 +57603,34 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>*    *        ******</v>
+        <v xml:space="preserve">      i     ******  </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'*    *        ******',</v>
+        <v>'      i     ******  ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>6</v>
@@ -57795,22 +57648,22 @@
         <v>6</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>6</v>
@@ -57829,11 +57682,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">*iiiii*     H****H  </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'*iiiii*     H****H  ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -59105,63 +58958,143 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:Y25 F2:N5 B6:E6 U1:Y6 G1:N1 G6:N6">
-    <cfRule type="expression" dxfId="81" priority="12">
+  <conditionalFormatting sqref="A8:Y25 G1:N1 S1:Y7 F2:N5 B6:N6 A7:N7">
+    <cfRule type="expression" dxfId="102" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:Z25 F2:N5 B6:E6 U1:Z6 G1:N1 G6:N6">
-    <cfRule type="cellIs" dxfId="80" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A8:Z25 G1:N1 S1:Z7 F2:N5 B6:N6 A7:N7">
+    <cfRule type="cellIs" dxfId="101" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="100" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="cellIs" dxfId="68" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T6">
-    <cfRule type="expression" dxfId="65" priority="8">
+  <conditionalFormatting sqref="M1:R7">
+    <cfRule type="expression" dxfId="98" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T6">
-    <cfRule type="cellIs" dxfId="64" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="M1:R7">
+    <cfRule type="cellIs" dxfId="97" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="96" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="94" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="92" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="17" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F5">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F5">
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:E6">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:E6">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59188,7 +59121,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>61</v>
@@ -59206,7 +59139,7 @@
         <v>61</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -59224,28 +59157,28 @@
         <v>6</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="S1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -59258,11 +59191,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>******        p t  p</v>
+        <v xml:space="preserve">H*****H     p t  p  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'******        p t  p',</v>
+        <v>'H*****H     p t  p  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -59285,7 +59218,7 @@
         <v>61</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
@@ -59337,11 +59270,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">*******             </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'******              ',</v>
+        <v>'*******             ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -59364,7 +59297,7 @@
         <v>61</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>6</v>
@@ -59416,11 +59349,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">*******             </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'******              ',</v>
+        <v>'*******             ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -59443,7 +59376,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -59495,11 +59428,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">*******             </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'******              ',</v>
+        <v>'*******             ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -59522,7 +59455,7 @@
         <v>61</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -59574,11 +59507,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">*******             </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'******              ',</v>
+        <v>'*******             ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -59601,7 +59534,7 @@
         <v>61</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>6</v>
@@ -59625,7 +59558,7 @@
         <v>6</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>6</v>
@@ -59640,7 +59573,7 @@
         <v>6</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -59653,34 +59586,34 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>******        p    p</v>
+        <v xml:space="preserve">*******             </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'******        p    p',</v>
+        <v>'*******             ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>6</v>
@@ -59698,7 +59631,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>6</v>
@@ -59713,7 +59646,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>6</v>
@@ -59732,11 +59665,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">H*****H     p    p  </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'H*****H     p    p  ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -61009,12 +60942,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="83" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="82" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61028,7 +60961,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA1:AA20"/>
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61056,10 +60989,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -61111,11 +61044,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">p t  p              </v>
+        <v xml:space="preserve">p t   p             </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'p t  p              ',</v>
+        <v>'p t   p             ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -61436,7 +61369,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -61451,7 +61384,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>6</v>
@@ -61506,16 +61439,16 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">p    p              </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'p    p              ',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -61533,7 +61466,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>6</v>
@@ -61585,11 +61518,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">p     p             </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'p     p             ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -62862,12 +62795,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="88" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -2274,7 +2274,945 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="259">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5933,12 +6871,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="258" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="123" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7786,25 +8724,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y5 A6:D8 H6:Y8 A9:Y25">
-    <cfRule type="expression" dxfId="86" priority="5">
+    <cfRule type="expression" dxfId="220" priority="5">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z5 A6:D8 H6:Z8 A9:Z25">
-    <cfRule type="cellIs" dxfId="85" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="4" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA20">
-    <cfRule type="uniqueValues" dxfId="84" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="218" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G8">
-    <cfRule type="expression" dxfId="83" priority="2">
+    <cfRule type="expression" dxfId="217" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G8">
-    <cfRule type="cellIs" dxfId="82" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9652,12 +10590,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="215" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11505,12 +12443,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="213" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="78" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13358,12 +14296,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="211" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15211,12 +16149,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="209" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="74" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17067,12 +18005,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="207" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18800,22 +19738,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="71" priority="4">
+    <cfRule type="expression" dxfId="205" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="70" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="203" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="68" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20541,22 +21479,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="201" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19">
-    <cfRule type="cellIs" dxfId="66" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="199" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="cellIs" dxfId="64" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22288,22 +23226,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="197" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="62" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="195" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24031,22 +24969,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="193" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="191" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25894,12 +26832,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="256" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="121" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27627,22 +28565,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="189" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="54" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="187" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29370,12 +30308,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="185" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31103,12 +32041,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="183" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32836,12 +33774,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="181" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34569,22 +35507,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="179" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="177" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36312,12 +37250,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="175" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38045,12 +38983,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="173" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39776,12 +40714,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="171" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41629,12 +42567,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="169" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43482,12 +44420,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="167" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43500,8 +44438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45335,12 +46273,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="254" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="119" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47188,12 +48126,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="165" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49041,12 +49979,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="163" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51460,22 +52398,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51489,7 +52427,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA1:AA20"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51502,10 +52440,10 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>61</v>
@@ -51538,10 +52476,10 @@
         <v>6</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>61</v>
@@ -51572,16 +52510,16 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">H*****H     H****H  </v>
+        <v xml:space="preserve">  ****H       ***H  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'H*****H     H****H  ',</v>
+        <v>'  ****H       ***H  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>6</v>
@@ -51617,7 +52555,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>6</v>
@@ -51651,11 +52589,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">*     *     *    *  </v>
+        <v xml:space="preserve">      *          *  </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'*     *     *    *  ',</v>
+        <v>'      *          *  ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -51918,7 +52856,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>6</v>
@@ -51967,11 +52905,11 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*     *     *    *  </v>
+        <v xml:space="preserve">*     *w    *    *  </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'*     *     *    *  ',</v>
+        <v>'*     *w    *    *  ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -52070,7 +53008,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>6</v>
@@ -52125,11 +53063,11 @@
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">     w              </v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'     w              ',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -52261,7 +53199,7 @@
         <v>6</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>6</v>
@@ -52283,11 +53221,11 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                w   </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'                w   ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -52322,28 +53260,28 @@
         <v>6</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S11" s="12" t="s">
         <v>6</v>
@@ -52362,11 +53300,11 @@
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">          H*****Hw  </v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'          H*****Hw  ',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -52386,11 +53324,11 @@
         <v>6</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
@@ -52401,10 +53339,10 @@
         <v>6</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>285</v>
@@ -52419,7 +53357,7 @@
         <v>285</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>6</v>
@@ -52441,11 +53379,11 @@
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">     H     H@@@@H   </v>
+        <v xml:space="preserve">      H   *@@@@@*   </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'     H     H@@@@H   ',</v>
+        <v>'      H   *@@@@@*   ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -52480,7 +53418,7 @@
         <v>6</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>285</v>
@@ -52498,7 +53436,7 @@
         <v>285</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>6</v>
@@ -52520,11 +53458,11 @@
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">           @@@@@@   </v>
+        <v xml:space="preserve">          *@@@@@*   </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'           @@@@@@   ',</v>
+        <v>'          *@@@@@*   ',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -52559,7 +53497,7 @@
         <v>6</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>285</v>
@@ -52577,7 +53515,7 @@
         <v>285</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>6</v>
@@ -52599,11 +53537,11 @@
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">           @@@@@@   </v>
+        <v xml:space="preserve">          *@@@@@*   </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'           @@@@@@   ',</v>
+        <v>'          *@@@@@*   ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -52638,7 +53576,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>285</v>
@@ -52656,7 +53594,7 @@
         <v>285</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>6</v>
@@ -52678,11 +53616,11 @@
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">           @@@@@@   </v>
+        <v xml:space="preserve">          *@@@@@*   </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'           @@@@@@   ',</v>
+        <v>'          *@@@@@*   ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -52717,7 +53655,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>285</v>
@@ -52735,7 +53673,7 @@
         <v>285</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="R16" s="12" t="s">
         <v>6</v>
@@ -52757,11 +53695,11 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">           @@@@@@   </v>
+        <v xml:space="preserve">          *@@@@@*   </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'           @@@@@@   ',</v>
+        <v>'          *@@@@@*   ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -52781,13 +53719,13 @@
         <v>6</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>6</v>
@@ -52796,22 +53734,22 @@
         <v>6</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>264</v>
@@ -52836,11 +53774,11 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">H    H     H@@@@H   </v>
+        <v xml:space="preserve">H     Hw  H*****H   </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'H    H     H@@@@H   ',</v>
+        <v>'H     Hw  H*****H   ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -52863,7 +53801,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>6</v>
@@ -52915,11 +53853,11 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">      w             </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'      w             ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -53320,12 +54258,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="252" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="117" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54172,7 +55110,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>6</v>
@@ -54190,7 +55128,7 @@
         <v>6</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>6</v>
@@ -54212,11 +55150,11 @@
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">          p     p   </v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'          p     p   ',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -54236,11 +55174,11 @@
         <v>61</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
@@ -54254,7 +55192,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>6</v>
@@ -54269,7 +55207,7 @@
         <v>6</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>6</v>
@@ -54291,11 +55229,11 @@
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">H****H     p    p   </v>
+        <v xml:space="preserve">H*****H             </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'H****H     p    p   ',</v>
+        <v>'H*****H             ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -54303,22 +55241,22 @@
         <v>61</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>6</v>
@@ -54370,11 +55308,11 @@
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">*@@@@@*             </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'******              ',</v>
+        <v>'*@@@@@*             ',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -54382,22 +55320,22 @@
         <v>61</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>6</v>
@@ -54449,11 +55387,11 @@
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">*@@@@@*             </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'******              ',</v>
+        <v>'*@@@@@*             ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -54461,22 +55399,22 @@
         <v>61</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>6</v>
@@ -54506,7 +55444,7 @@
         <v>6</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>6</v>
@@ -54528,11 +55466,11 @@
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******          T   </v>
+        <v xml:space="preserve">*@@@@@*             </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'******          T   ',</v>
+        <v>'*@@@@@*             ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -54540,22 +55478,22 @@
         <v>61</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>6</v>
@@ -54582,7 +55520,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>6</v>
@@ -54607,11 +55545,11 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">******              </v>
+        <v xml:space="preserve">*@@@@@*        T    </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'******              ',</v>
+        <v>'*@@@@@*        T    ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -54631,11 +55569,11 @@
         <v>61</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="H17" s="12" t="s">
         <v>6</v>
       </c>
@@ -54646,10 +55584,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>6</v>
@@ -54686,11 +55624,11 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">H****H     p    p   </v>
+        <v xml:space="preserve">H*****H   p     p   </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'H****H     p    p   ',</v>
+        <v>'H*****H   p     p   ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -55172,43 +56110,83 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:Y14 A21:Y25 G1:N6 G6:G7 S1:Y6 M5:N7 L12:Q17 G15:Y20 A18:F20">
-    <cfRule type="expression" dxfId="116" priority="8">
+  <conditionalFormatting sqref="A21:Y25 G1:N6 G6:G7 S1:Y6 M5:N7 L12:Q17 G16:Y20 A18:F20 I15:Y15 A7:Y14">
+    <cfRule type="expression" dxfId="250" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:Z14 A21:Z25 G1:N6 G6:G7 S1:Z6 M5:N7 L12:Q17 G15:Z20 A18:F20">
-    <cfRule type="cellIs" dxfId="115" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A21:Z25 G1:N6 G6:G7 S1:Z6 M5:N7 L12:Q17 G16:Z20 A18:F20 I15:Z15 A7:Z14">
+    <cfRule type="cellIs" dxfId="249" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:F17">
-    <cfRule type="expression" dxfId="114" priority="6">
+  <conditionalFormatting sqref="G15:H15 A12:G17">
+    <cfRule type="expression" dxfId="248" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:F17">
-    <cfRule type="cellIs" dxfId="113" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G15:H15 A12:G17">
+    <cfRule type="cellIs" dxfId="247" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:R7">
-    <cfRule type="expression" dxfId="112" priority="4">
+    <cfRule type="expression" dxfId="246" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:R7">
-    <cfRule type="cellIs" dxfId="111" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="expression" dxfId="110" priority="2">
+    <cfRule type="expression" dxfId="244" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="cellIs" dxfId="109" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="9" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:E15">
+    <cfRule type="expression" dxfId="127" priority="8">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:E15">
+    <cfRule type="cellIs" dxfId="125" priority="7" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:E16">
+    <cfRule type="expression" dxfId="121" priority="6">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:E16">
+    <cfRule type="cellIs" dxfId="119" priority="5" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55221,8 +56199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56107,7 +57085,7 @@
         <v>201</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>6</v>
@@ -56119,10 +57097,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>6</v>
@@ -56174,11 +57152,11 @@
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">pT   p              </v>
+        <v xml:space="preserve">p     p             </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'pT   p              ',</v>
+        <v>'p     p             ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -56198,7 +57176,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>6</v>
@@ -56253,11 +57231,11 @@
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">     T              </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'     T              ',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -56423,7 +57401,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>6</v>
@@ -56490,11 +57468,11 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> t                  </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>' t                  ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -56514,10 +57492,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>6</v>
@@ -56569,11 +57547,11 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">p    p              </v>
+        <v xml:space="preserve">p     p             </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'p    p              ',</v>
+        <v>'p     p             ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -57055,63 +58033,63 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U1:Y6 F1:N5 A6:N6 A7:Y25 M1:O7">
-    <cfRule type="expression" dxfId="108" priority="14">
+  <conditionalFormatting sqref="U1:Y6 F1:N5 A6:N6 M1:O7 A7:Y25">
+    <cfRule type="expression" dxfId="242" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:Z6 F1:N5 A6:N6 A7:Z25 M1:O7">
-    <cfRule type="cellIs" dxfId="107" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="U1:Z6 F1:N5 A6:N6 M1:O7 A7:Z25">
+    <cfRule type="cellIs" dxfId="241" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="expression" dxfId="106" priority="10">
+    <cfRule type="expression" dxfId="240" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="cellIs" dxfId="105" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:T6 M6:R7">
-    <cfRule type="expression" dxfId="104" priority="8">
+    <cfRule type="expression" dxfId="238" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:T6 M6:R7">
-    <cfRule type="cellIs" dxfId="103" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="expression" dxfId="23" priority="6">
+    <cfRule type="expression" dxfId="157" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="155" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="153" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57256,16 +58234,16 @@
         <v>61</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>61</v>
@@ -57287,11 +58265,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">      i     ******  </v>
+        <v xml:space="preserve">      i     *@@@@*  </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'      i     ******  ',</v>
+        <v>'      i     *@@@@*  ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -57335,16 +58313,16 @@
         <v>61</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>61</v>
@@ -57366,11 +58344,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      i     ******  </v>
+        <v xml:space="preserve">      i     *@@@@*  </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'      i     ******  ',</v>
+        <v>'      i     *@@@@*  ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -57414,16 +58392,16 @@
         <v>61</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>61</v>
@@ -57445,11 +58423,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      i     ******  </v>
+        <v xml:space="preserve">      i     *@@@@*  </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'      i     ******  ',</v>
+        <v>'      i     *@@@@*  ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -57493,16 +58471,16 @@
         <v>61</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>61</v>
@@ -57524,11 +58502,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      i     ******  </v>
+        <v xml:space="preserve">      i     *@@@@*  </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'      i     ******  ',</v>
+        <v>'      i     *@@@@*  ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -57572,16 +58550,16 @@
         <v>61</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>61</v>
@@ -57603,11 +58581,11 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      i     ******  </v>
+        <v xml:space="preserve">      i     *@@@@*  </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'      i     ******  ',</v>
+        <v>'      i     *@@@@*  ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -58958,143 +59936,293 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A8:Y25 G1:N1 S1:Y7 F2:N5 B6:N6 A7:N7">
-    <cfRule type="expression" dxfId="102" priority="28">
+  <conditionalFormatting sqref="A8:Y25 G1:N1 S1:Y7 A7:N7 F2:N5 B6:N6">
+    <cfRule type="expression" dxfId="236" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:Z25 G1:N1 S1:Z7 F2:N5 B6:N6 A7:N7">
-    <cfRule type="cellIs" dxfId="101" priority="27" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A8:Z25 G1:N1 S1:Z7 A7:N7 F2:N5 B6:N6">
+    <cfRule type="cellIs" dxfId="235" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="expression" dxfId="100" priority="26">
+    <cfRule type="expression" dxfId="234" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="cellIs" dxfId="99" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:R7">
-    <cfRule type="expression" dxfId="98" priority="24">
+    <cfRule type="expression" dxfId="232" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:R7">
-    <cfRule type="cellIs" dxfId="97" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="96" priority="22">
+    <cfRule type="expression" dxfId="230" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="95" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="94" priority="20">
+    <cfRule type="expression" dxfId="228" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="93" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="92" priority="18">
+    <cfRule type="expression" dxfId="226" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="91" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="151" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="149" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="147" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="145" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="143" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="141" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="139" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="137" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="31" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="expression" dxfId="107" priority="30">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="cellIs" dxfId="105" priority="29" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="expression" dxfId="101" priority="28">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="cellIs" dxfId="99" priority="27" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="expression" dxfId="95" priority="26">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="cellIs" dxfId="93" priority="25" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="expression" dxfId="85" priority="24">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="cellIs" dxfId="83" priority="23" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="expression" dxfId="81" priority="22">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="cellIs" dxfId="79" priority="21" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="expression" dxfId="77" priority="20">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="cellIs" dxfId="75" priority="19" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="expression" dxfId="69" priority="18">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="cellIs" dxfId="67" priority="17" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="expression" dxfId="65" priority="16">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="cellIs" dxfId="63" priority="15" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="expression" dxfId="61" priority="14">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="cellIs" dxfId="59" priority="13" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="expression" dxfId="53" priority="12">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="cellIs" dxfId="51" priority="11" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="expression" dxfId="49" priority="10">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="cellIs" dxfId="47" priority="9" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="expression" dxfId="45" priority="8">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="expression" dxfId="37" priority="6">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="expression" dxfId="33" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59163,7 +60291,7 @@
         <v>6</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>6</v>
@@ -59191,11 +60319,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">H*****H     p t  p  </v>
+        <v xml:space="preserve">H*****H     p    p  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'H*****H     p t  p  ',</v>
+        <v>'H*****H     p    p  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -59203,19 +60331,19 @@
         <v>61</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>61</v>
@@ -59248,7 +60376,7 @@
         <v>6</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>6</v>
@@ -59270,11 +60398,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">*******             </v>
+        <v xml:space="preserve">*@@@@@*         T   </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'*******             ',</v>
+        <v>'*@@@@@*         T   ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -59282,19 +60410,19 @@
         <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>61</v>
@@ -59349,11 +60477,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*******             </v>
+        <v xml:space="preserve">*@@@@@*             </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'*******             ',</v>
+        <v>'*@@@@@*             ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -59361,19 +60489,19 @@
         <v>61</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>61</v>
@@ -59428,11 +60556,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*******             </v>
+        <v xml:space="preserve">*@@@@@*             </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'*******             ',</v>
+        <v>'*@@@@@*             ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -59440,19 +60568,19 @@
         <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>61</v>
@@ -59507,11 +60635,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*******             </v>
+        <v xml:space="preserve">*@@@@@*             </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'*******             ',</v>
+        <v>'*@@@@@*             ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -59519,19 +60647,19 @@
         <v>61</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>61</v>
@@ -59555,7 +60683,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>6</v>
@@ -59586,11 +60714,11 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*******             </v>
+        <v xml:space="preserve">*@@@@@*      t      </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'*******             ',</v>
+        <v>'*@@@@@*      t      ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -60942,12 +62070,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="224" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60961,7 +62089,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60980,7 +62108,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>6</v>
@@ -61044,11 +62172,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">p t   p             </v>
+        <v xml:space="preserve">p     p             </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'p t   p             ',</v>
+        <v>'p     p             ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -61056,7 +62184,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>6</v>
@@ -61123,11 +62251,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> t                  </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>' t                  ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -62795,12 +63923,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="88" priority="2">
+    <cfRule type="expression" dxfId="222" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="87" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -2274,1113 +2274,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="259">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="161">
     <dxf>
       <fill>
         <patternFill>
@@ -4091,6 +2985,426 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6871,12 +6185,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="258" priority="2">
+    <cfRule type="expression" dxfId="160" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="257" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8724,25 +8038,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y5 A6:D8 H6:Y8 A9:Y25">
-    <cfRule type="expression" dxfId="220" priority="5">
+    <cfRule type="expression" dxfId="62" priority="5">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z5 A6:D8 H6:Z8 A9:Z25">
-    <cfRule type="cellIs" dxfId="219" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA20">
-    <cfRule type="uniqueValues" dxfId="218" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="60" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G8">
-    <cfRule type="expression" dxfId="217" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:G8">
-    <cfRule type="cellIs" dxfId="216" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10590,12 +9904,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="215" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="214" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12443,12 +11757,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="213" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="212" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14296,12 +13610,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="211" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="210" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16149,12 +15463,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="209" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="208" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18005,12 +17319,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="207" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="206" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19738,22 +19052,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="205" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="204" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="203" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="202" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21479,22 +20793,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19">
-    <cfRule type="expression" dxfId="201" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19">
-    <cfRule type="cellIs" dxfId="200" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="expression" dxfId="199" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="cellIs" dxfId="198" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23226,22 +22540,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="197" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="196" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="195" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="194" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24969,22 +24283,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="193" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="192" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="191" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="190" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26832,12 +26146,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="256" priority="2">
+    <cfRule type="expression" dxfId="158" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="255" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28565,22 +27879,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="189" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="188" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="187" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="186" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30308,12 +29622,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="185" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="184" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32041,12 +31355,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="183" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="182" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33774,12 +33088,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="181" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="180" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35507,22 +34821,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="179" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="178" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="177" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="176" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37250,12 +36564,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="175" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="174" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38983,12 +38297,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="173" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="172" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40714,12 +40028,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="171" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="170" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42567,12 +41881,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="169" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="168" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44420,12 +43734,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="167" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="166" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46273,12 +45587,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="254" priority="2">
+    <cfRule type="expression" dxfId="156" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="253" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48126,12 +47440,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="165" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="164" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49979,12 +49293,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="163" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="162" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52398,22 +51712,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="161" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="160" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="158" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52426,8 +51740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52537,7 +51851,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
@@ -52589,11 +51903,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">      *          *  </v>
+        <v xml:space="preserve">      #          *  </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'      *          *  ',</v>
+        <v>'      #          *  ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -52616,7 +51930,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>6</v>
@@ -52668,11 +51982,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*     *     *    *  </v>
+        <v xml:space="preserve">*     #     *    *  </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'*     *     *    *  ',</v>
+        <v>'*     #     *    *  ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -52695,7 +52009,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -52747,11 +52061,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*     *     *    *  </v>
+        <v xml:space="preserve">*     #     *    *  </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'*     *     *    *  ',</v>
+        <v>'*     #     *    *  ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -52774,7 +52088,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -52826,11 +52140,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*     *     *    *  </v>
+        <v xml:space="preserve">*     #     *    *  </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'*     *     *    *  ',</v>
+        <v>'*     #     *    *  ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -52853,7 +52167,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>30</v>
@@ -52905,11 +52219,11 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*     *w    *    *  </v>
+        <v xml:space="preserve">*     #w    *    *  </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'*     *w    *    *  ',</v>
+        <v>'*     #w    *    *  ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -52917,19 +52231,19 @@
         <v>264</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>264</v>
@@ -52984,11 +52298,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">H*****H     H****H  </v>
+        <v xml:space="preserve">H#####H     H****H  </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'H*****H     H****H  ',</v>
+        <v>'H#####H     H****H  ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -53041,7 +52355,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>6</v>
@@ -53063,11 +52377,11 @@
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">     w              </v>
+        <v xml:space="preserve">     w          w   </v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'     w              ',</v>
+        <v>'     w          w   ',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -53199,7 +52513,7 @@
         <v>6</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>6</v>
@@ -53221,11 +52535,11 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                w   </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'                w   ',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -54258,12 +53572,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="252" priority="2">
+    <cfRule type="expression" dxfId="154" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="251" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56111,82 +55425,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 G1:N6 G6:G7 S1:Y6 M5:N7 L12:Q17 G16:Y20 A18:F20 I15:Y15 A7:Y14">
-    <cfRule type="expression" dxfId="250" priority="16">
+    <cfRule type="expression" dxfId="152" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 G1:N6 G6:G7 S1:Z6 M5:N7 L12:Q17 G16:Z20 A18:F20 I15:Z15 A7:Z14">
-    <cfRule type="cellIs" dxfId="249" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15 A12:G17">
-    <cfRule type="expression" dxfId="248" priority="14">
+    <cfRule type="expression" dxfId="150" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15 A12:G17">
-    <cfRule type="cellIs" dxfId="247" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:R7">
-    <cfRule type="expression" dxfId="246" priority="12">
+    <cfRule type="expression" dxfId="148" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:R7">
-    <cfRule type="cellIs" dxfId="245" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="expression" dxfId="244" priority="10">
+    <cfRule type="expression" dxfId="146" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G7">
-    <cfRule type="cellIs" dxfId="243" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:E15">
-    <cfRule type="expression" dxfId="127" priority="8">
+    <cfRule type="expression" dxfId="144" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:E15">
-    <cfRule type="cellIs" dxfId="125" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E16">
-    <cfRule type="expression" dxfId="121" priority="6">
+    <cfRule type="expression" dxfId="142" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E16">
-    <cfRule type="cellIs" dxfId="119" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="140" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="138" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56199,7 +55513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
@@ -58034,62 +57348,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U1:Y6 F1:N5 A6:N6 M1:O7 A7:Y25">
-    <cfRule type="expression" dxfId="242" priority="14">
+    <cfRule type="expression" dxfId="136" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:Z6 F1:N5 A6:N6 M1:O7 A7:Z25">
-    <cfRule type="cellIs" dxfId="241" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="expression" dxfId="240" priority="10">
+    <cfRule type="expression" dxfId="134" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="cellIs" dxfId="239" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:T6 M6:R7">
-    <cfRule type="expression" dxfId="238" priority="8">
+    <cfRule type="expression" dxfId="132" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:T6 M6:R7">
-    <cfRule type="cellIs" dxfId="237" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="expression" dxfId="157" priority="6">
+    <cfRule type="expression" dxfId="130" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="cellIs" dxfId="156" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="expression" dxfId="155" priority="4">
+    <cfRule type="expression" dxfId="128" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="cellIs" dxfId="154" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="153" priority="2">
+    <cfRule type="expression" dxfId="126" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="152" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59937,292 +59251,292 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8:Y25 G1:N1 S1:Y7 A7:N7 F2:N5 B6:N6">
-    <cfRule type="expression" dxfId="236" priority="58">
+    <cfRule type="expression" dxfId="124" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:Z25 G1:N1 S1:Z7 A7:N7 F2:N5 B6:N6">
-    <cfRule type="cellIs" dxfId="235" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="expression" dxfId="234" priority="56">
+    <cfRule type="expression" dxfId="122" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="cellIs" dxfId="233" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:R7">
-    <cfRule type="expression" dxfId="232" priority="54">
+    <cfRule type="expression" dxfId="120" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:R7">
-    <cfRule type="cellIs" dxfId="231" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="230" priority="52">
+    <cfRule type="expression" dxfId="118" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="229" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="228" priority="50">
+    <cfRule type="expression" dxfId="116" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="227" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="226" priority="48">
+    <cfRule type="expression" dxfId="114" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="225" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="expression" dxfId="151" priority="46">
+    <cfRule type="expression" dxfId="112" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="cellIs" dxfId="150" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="149" priority="44">
+    <cfRule type="expression" dxfId="110" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="148" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="147" priority="42">
+    <cfRule type="expression" dxfId="108" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="146" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="expression" dxfId="145" priority="40">
+    <cfRule type="expression" dxfId="106" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="cellIs" dxfId="144" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="143" priority="38">
+    <cfRule type="expression" dxfId="104" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="142" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="141" priority="36">
+    <cfRule type="expression" dxfId="102" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="140" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="139" priority="34">
+    <cfRule type="expression" dxfId="100" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="138" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="137" priority="32">
+    <cfRule type="expression" dxfId="98" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="136" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="expression" dxfId="107" priority="30">
+    <cfRule type="expression" dxfId="96" priority="30">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" dxfId="105" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="29" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="expression" dxfId="101" priority="28">
+    <cfRule type="expression" dxfId="94" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="cellIs" dxfId="99" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="expression" dxfId="95" priority="26">
+    <cfRule type="expression" dxfId="92" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="cellIs" dxfId="93" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="expression" dxfId="85" priority="24">
+    <cfRule type="expression" dxfId="90" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="83" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="expression" dxfId="81" priority="22">
+    <cfRule type="expression" dxfId="88" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="79" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="77" priority="20">
+    <cfRule type="expression" dxfId="86" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="75" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="69" priority="18">
+    <cfRule type="expression" dxfId="84" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="67" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="82" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="63" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
-    <cfRule type="expression" dxfId="61" priority="14">
+    <cfRule type="expression" dxfId="80" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
-    <cfRule type="cellIs" dxfId="59" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="53" priority="12">
+    <cfRule type="expression" dxfId="78" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" dxfId="51" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="49" priority="10">
+    <cfRule type="expression" dxfId="76" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="47" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="74" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="37" priority="6">
+    <cfRule type="expression" dxfId="72" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="70" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="68" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60346,7 +59660,7 @@
         <v>285</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
@@ -60398,11 +59712,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">*@@@@@*         T   </v>
+        <v xml:space="preserve">*@@@@@#         T   </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'*@@@@@*         T   ',</v>
+        <v>'*@@@@@#         T   ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -60425,7 +59739,7 @@
         <v>285</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>6</v>
@@ -60477,11 +59791,11 @@
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*@@@@@*             </v>
+        <v xml:space="preserve">*@@@@@#             </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'*@@@@@*             ',</v>
+        <v>'*@@@@@#             ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -60504,7 +59818,7 @@
         <v>285</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -60556,11 +59870,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*@@@@@*             </v>
+        <v xml:space="preserve">*@@@@@#             </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'*@@@@@*             ',</v>
+        <v>'*@@@@@#             ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -60583,7 +59897,7 @@
         <v>285</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -60635,11 +59949,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*@@@@@*             </v>
+        <v xml:space="preserve">*@@@@@#             </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'*@@@@@*             ',</v>
+        <v>'*@@@@@#             ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -60662,7 +59976,7 @@
         <v>285</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>6</v>
@@ -60714,11 +60028,11 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*@@@@@*      t      </v>
+        <v xml:space="preserve">*@@@@@#      t      </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'*@@@@@*      t      ',</v>
+        <v>'*@@@@@#      t      ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -60726,19 +60040,19 @@
         <v>264</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>264</v>
@@ -60793,11 +60107,11 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">H*****H     p    p  </v>
+        <v xml:space="preserve">H#####H     p    p  </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'H*****H     p    p  ',</v>
+        <v>'H#####H     p    p  ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -62070,12 +61384,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="224" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="223" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63923,12 +63237,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="222" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="221" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12396" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12396" uniqueCount="288">
   <si>
     <t>width</t>
   </si>
@@ -1993,54 +1993,6 @@
     <t>c</t>
   </si>
   <si>
-    <t xml:space="preserve">*****************   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">******************  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">******************* </t>
-  </si>
-  <si>
-    <t>********************</t>
-  </si>
-  <si>
-    <t>**    **************</t>
-  </si>
-  <si>
-    <t>#*    *  #****#   **</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i    *   ####    **</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i        ####     i</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i       ######    i</t>
-  </si>
-  <si>
-    <t>#*       ######    i</t>
-  </si>
-  <si>
-    <t>**       ######    i</t>
-  </si>
-  <si>
-    <t>***  *    ####     *</t>
-  </si>
-  <si>
-    <t>***  *   #****#   **</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *******************</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ****************  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    *************   </t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -2048,6 +2000,57 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~~~~~~~~~~~~~~~~~   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~~~~~~~~~~~~~~~~~~  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~~~~~~~~~~~~~~~~~~~ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~~~~~~iii~~~ ~~~l~~ </t>
+  </si>
+  <si>
+    <t>~~~~~ii~~~~~~~~~ll~~</t>
+  </si>
+  <si>
+    <t>~~~~ii~~~~~~~~~~~l~~</t>
+  </si>
+  <si>
+    <t>~~~~~~~~~~~~~~~~~l~~</t>
+  </si>
+  <si>
+    <t>~~~~~~~~~~~lll~~ll~~</t>
+  </si>
+  <si>
+    <t>~~~~~~~~llll~ll~l~~~</t>
+  </si>
+  <si>
+    <t>~~~~~~~ll~~~~~lll~~~</t>
+  </si>
+  <si>
+    <t>~~~~~~~~~~~~~~~ll~~~</t>
+  </si>
+  <si>
+    <t>~~~~~~~~~~~~~~~lll~~</t>
+  </si>
+  <si>
+    <t>~~~~~~~~~~~~~~~~lll~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~~~~~~~~~~~~~~~~~~l </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~~~ ~~~~~~~~~~~    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ~~~~~~~~~~~      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ~~~~~~~~       </t>
   </si>
 </sst>
 </file>
@@ -3698,71 +3701,71 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f t="shared" ref="A1:A20" si="0">MID($AA1,COLUMN(),1)</f>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B1" s="5" t="str">
         <f t="shared" ref="B1:T14" si="1">MID($AA1,COLUMN(),1)</f>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="F1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="P1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="Q1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="R1" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3797,7 +3800,7 @@
         <v/>
       </c>
       <c r="AA1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>130</v>
@@ -3810,75 +3813,75 @@
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="F2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="P2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="Q2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="R2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="S2" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3909,7 +3912,7 @@
         <v/>
       </c>
       <c r="AA2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AB2" s="13" t="s">
         <v>131</v>
@@ -3922,79 +3925,79 @@
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="P3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="Q3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="R3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="S3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="T3" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4021,7 +4024,7 @@
         <v/>
       </c>
       <c r="AA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AB3" s="13" t="s">
         <v>132</v>
@@ -4034,83 +4037,83 @@
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="P4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="Q4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="R4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="S4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="T4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="U4" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4133,7 +4136,7 @@
         <v/>
       </c>
       <c r="AA4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB4" s="13" t="s">
         <v>133</v>
@@ -4146,83 +4149,83 @@
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>i</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>i</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>i</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="N5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="O5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="Q5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>l</v>
+      </c>
+      <c r="R5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="S5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="T5" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="L5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="M5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="N5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="O5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="P5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="Q5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="R5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="S5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="T5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
       </c>
       <c r="U5" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4245,7 +4248,7 @@
         <v/>
       </c>
       <c r="AA5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AB5" s="13" t="s">
         <v>134</v>
@@ -4258,83 +4261,83 @@
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>i</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>i</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="R6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="S6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="T6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="U6" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4357,7 +4360,7 @@
         <v/>
       </c>
       <c r="AA6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AB6" s="13" t="s">
         <v>135</v>
@@ -4370,83 +4373,83 @@
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>i</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="K7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="M7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="N7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="O7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="P7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="S7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="T7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="U7" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4469,7 +4472,7 @@
         <v/>
       </c>
       <c r="AA7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>136</v>
@@ -4482,83 +4485,83 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>~</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="M8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="N8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="O8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="P8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="Q8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="S8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="T8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>~</v>
       </c>
       <c r="U8" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4581,7 +4584,7 @@
         <v/>
       </c>
       <c r="AA8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>137</v>
@@ -4594,83 +4597,83 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>~</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="J9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="M9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="N9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="O9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="P9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="S9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="T9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>~</v>
       </c>
       <c r="U9" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4693,7 +4696,7 @@
         <v/>
       </c>
       <c r="AA9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>138</v>
@@ -4706,83 +4709,83 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="K10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="M10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="N10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="O10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="P10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="S10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="T10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>~</v>
       </c>
       <c r="U10" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4805,7 +4808,7 @@
         <v/>
       </c>
       <c r="AA10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AB10" s="13" t="s">
         <v>139</v>
@@ -4818,83 +4821,83 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="K11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="L11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="M11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="N11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="O11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>l</v>
       </c>
       <c r="P11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="Q11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="R11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="S11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="T11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>~</v>
       </c>
       <c r="U11" s="5" t="str">
         <f t="shared" ref="U11:Y20" si="4">MID($AA11,COLUMN()+1,1)</f>
@@ -4917,7 +4920,7 @@
         <v/>
       </c>
       <c r="AA11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AB11" s="13" t="s">
         <v>138</v>
@@ -4930,83 +4933,83 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="K12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="M12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="N12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="O12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="P12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="R12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="S12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="T12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="U12" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5029,7 +5032,7 @@
         <v/>
       </c>
       <c r="AA12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AB12" s="13" t="s">
         <v>140</v>
@@ -5042,83 +5045,83 @@
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="M13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="N13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="O13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="P13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="Q13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="R13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="S13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="T13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="U13" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5141,7 +5144,7 @@
         <v/>
       </c>
       <c r="AA13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AB13" s="13" t="s">
         <v>141</v>
@@ -5154,83 +5157,83 @@
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" ref="J14:T20" si="5">MID($AA14,COLUMN(),1)</f>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="K14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>#</v>
+        <v>~</v>
       </c>
       <c r="P14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="R14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>l</v>
       </c>
       <c r="S14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>l</v>
       </c>
       <c r="T14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="U14" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5253,7 +5256,7 @@
         <v/>
       </c>
       <c r="AA14" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AB14" s="13" t="s">
         <v>142</v>
@@ -5266,83 +5269,83 @@
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" ref="B15:I20" si="6">MID($AA15,COLUMN(),1)</f>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="P15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="Q15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="R15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="S15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>l</v>
       </c>
       <c r="T15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="U15" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5365,7 +5368,7 @@
         <v/>
       </c>
       <c r="AA15" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AB15" s="13" t="s">
         <v>143</v>
@@ -5378,83 +5381,83 @@
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="P16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="Q16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="R16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="S16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="T16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="U16" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5477,7 +5480,7 @@
         <v/>
       </c>
       <c r="AA16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB16" s="13" t="s">
         <v>144</v>
@@ -5490,83 +5493,83 @@
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>~</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="P17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="Q17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="R17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="S17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="T17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="U17" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5589,7 +5592,7 @@
         <v/>
       </c>
       <c r="AA17" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>145</v>
@@ -5606,79 +5609,79 @@
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="P18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="T18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="U18" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5701,7 +5704,7 @@
         <v/>
       </c>
       <c r="AA18" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AB18" s="13" t="s">
         <v>146</v>
@@ -5722,67 +5725,67 @@
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="O19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S19" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5813,7 +5816,7 @@
         <v/>
       </c>
       <c r="AA19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>147</v>
@@ -5842,55 +5845,55 @@
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="G20" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="L20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="M20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v>~</v>
       </c>
       <c r="N20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>*</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R20" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5925,7 +5928,7 @@
         <v/>
       </c>
       <c r="AA20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AB20" s="13" t="s">
         <v>148</v>
@@ -6706,7 +6709,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>25</v>
@@ -8131,7 +8134,7 @@
         <v>6</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>6</v>
@@ -8572,7 +8575,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>6</v>
@@ -8839,7 +8842,7 @@
         <v>61</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>10</v>
@@ -9204,7 +9207,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>61</v>
@@ -9626,7 +9629,7 @@
         <v>6</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>6</v>
@@ -10425,7 +10428,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>6</v>
@@ -10692,7 +10695,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -11057,7 +11060,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>61</v>
@@ -11789,19 +11792,19 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
@@ -11810,19 +11813,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>6</v>
@@ -11868,7 +11871,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>6</v>
@@ -11901,7 +11904,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>6</v>
@@ -11947,7 +11950,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>6</v>
@@ -11980,7 +11983,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>6</v>
@@ -12026,7 +12029,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>6</v>
@@ -12059,7 +12062,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>6</v>
@@ -12278,7 +12281,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>6</v>
@@ -12500,7 +12503,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>6</v>
@@ -12533,7 +12536,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>6</v>
@@ -12545,7 +12548,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -12579,7 +12582,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>6</v>
@@ -12612,7 +12615,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>6</v>
@@ -12658,7 +12661,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>6</v>
@@ -12691,7 +12694,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>6</v>
@@ -12737,7 +12740,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>6</v>
@@ -12770,7 +12773,7 @@
         <v>6</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>6</v>
@@ -12910,7 +12913,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>6</v>
@@ -13642,19 +13645,19 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
@@ -13663,19 +13666,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>6</v>
@@ -14131,7 +14134,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>6</v>
@@ -14398,7 +14401,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -14763,7 +14766,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>6</v>
@@ -15513,10 +15516,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>258</v>
@@ -15987,7 +15990,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>6</v>
@@ -16254,7 +16257,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -16619,7 +16622,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>6</v>
@@ -26164,7 +26167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
@@ -26496,13 +26499,13 @@
         <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>25</v>
@@ -26544,11 +26547,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">~~~~~~~~~~~~ ~~~l~~ </v>
+        <v xml:space="preserve">~~~~~~iii~~~ ~~~l~~ </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~ ~~~l~~ ',</v>
+        <v>'~~~~~~iii~~~ ~~~l~~ ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -26568,10 +26571,10 @@
         <v>25</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>25</v>
@@ -26619,11 +26622,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~ll~~</v>
+        <v>~~~~~ii~~~~~~~~~ll~~</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~ll~~',</v>
+        <v>'~~~~~ii~~~~~~~~~ll~~',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -26640,10 +26643,10 @@
         <v>25</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>25</v>
@@ -26694,11 +26697,11 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~~l~~</v>
+        <v>~~~~ii~~~~~~~~~~~l~~</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~~l~~',</v>
+        <v>'~~~~ii~~~~~~~~~~~l~~',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -26811,13 +26814,13 @@
         <v>25</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>25</v>
@@ -26844,11 +26847,11 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~ll~~</v>
+        <v>~~~~~~~~~~~l~l~~ll~~</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~ll~~',</v>
+        <v>'~~~~~~~~~~~l~l~~ll~~',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -26877,25 +26880,25 @@
         <v>25</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>25</v>
@@ -26919,11 +26922,11 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~~~~~~~l~~~</v>
+        <v>~~~~~~~~l~ll~ll~l~~~</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~~~~~~~l~~~',</v>
+        <v>'~~~~~~~~l~ll~ll~l~~~',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -26949,19 +26952,19 @@
         <v>25</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>25</v>
@@ -26970,7 +26973,7 @@
         <v>25</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>28</v>
@@ -26994,11 +26997,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~ii~~~ll~~~</v>
+        <v>~~~~~~~ll~~~~~lll~~~</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~ii~~~ll~~~',</v>
+        <v>'~~~~~~~ll~~~~~lll~~~',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -27033,10 +27036,10 @@
         <v>25</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>25</v>
@@ -27069,19 +27072,19 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>~~~~~~~~~~ii~~~ll~~~</v>
+        <v>~~~~~~~~~~~~~~~ll~~~</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~~~~~~ii~~~ll~~~',</v>
+        <v>'~~~~~~~~~~~~~~~ll~~~',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>25</v>
@@ -27105,16 +27108,16 @@
         <v>25</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>25</v>
@@ -27144,11 +27147,11 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>ll~~~~~~~iiii~~lll~~</v>
+        <v>~~~~~~~~~~~~~~~lll~~</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'ll~~~~~~~iiii~~lll~~',</v>
+        <v>'~~~~~~~~~~~~~~~lll~~',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -27156,16 +27159,16 @@
         <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>25</v>
@@ -27186,10 +27189,10 @@
         <v>25</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>25</v>
@@ -27219,11 +27222,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>~llll~~~~~~ii~~~lll~</v>
+        <v>~~~~~~~~~~~~~~~~lll~</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'~llll~~~~~~ii~~~lll~',</v>
+        <v>'~~~~~~~~~~~~~~~~lll~',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -27234,16 +27237,16 @@
         <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>25</v>
@@ -27261,13 +27264,13 @@
         <v>25</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>25</v>
@@ -27294,11 +27297,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">~~l~ll~~~~~iii~~~~l </v>
+        <v xml:space="preserve">~~~~~~~~~~~~~~~~~~l </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'~~l~ll~~~~~iii~~~~l ',</v>
+        <v>'~~~~~~~~~~~~~~~~~~l ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -27318,7 +27321,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>25</v>
@@ -27330,16 +27333,16 @@
         <v>25</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>25</v>
@@ -27369,11 +27372,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">~~~~~l~~~iiii~~~~~  </v>
+        <v xml:space="preserve">~~~~~~~~~~~~~~~~~~  </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'~~~~~l~~~iiii~~~~~  ',</v>
+        <v>'~~~~~~~~~~~~~~~~~~  ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -51740,7 +51743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
@@ -52656,19 +52659,19 @@
         <v>61</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>61</v>
@@ -52735,19 +52738,19 @@
         <v>61</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>61</v>
@@ -52814,19 +52817,19 @@
         <v>61</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>61</v>
@@ -52893,19 +52896,19 @@
         <v>61</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>61</v>
@@ -52972,19 +52975,19 @@
         <v>61</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>61</v>
@@ -54555,19 +54558,19 @@
         <v>61</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>61</v>
@@ -54634,19 +54637,19 @@
         <v>61</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>61</v>
@@ -54713,19 +54716,19 @@
         <v>61</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>61</v>
@@ -54792,19 +54795,19 @@
         <v>61</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>61</v>
@@ -56715,7 +56718,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>6</v>
@@ -57548,16 +57551,16 @@
         <v>61</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>61</v>
@@ -57627,16 +57630,16 @@
         <v>61</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>61</v>
@@ -57706,16 +57709,16 @@
         <v>61</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>61</v>
@@ -57785,16 +57788,16 @@
         <v>61</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>61</v>
@@ -57864,16 +57867,16 @@
         <v>61</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>61</v>
@@ -59645,19 +59648,19 @@
         <v>61</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>255</v>
@@ -59724,19 +59727,19 @@
         <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>255</v>
@@ -59803,19 +59806,19 @@
         <v>61</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>255</v>
@@ -59882,19 +59885,19 @@
         <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>255</v>
@@ -59961,19 +59964,19 @@
         <v>61</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>255</v>
@@ -59997,7 +60000,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>6</v>
@@ -61498,7 +61501,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>6</v>

--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -19084,7 +19084,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA1:AA20"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19715,7 +19715,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>6</v>
@@ -19763,11 +19763,11 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">####  S    &lt;##\     </v>
+        <v xml:space="preserve">####       &lt;##\     </v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'####  S    &lt;##\     ',</v>
+        <v>'####       &lt;##\     ',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -19931,7 +19931,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>11</v>
@@ -19967,7 +19967,7 @@
         <v>6</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>6</v>
@@ -19988,11 +19988,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#  S/          S    </v>
+        <v xml:space="preserve">#   /               </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'#  S/          S    ',</v>
+        <v>'#   /               ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -20457,7 +20457,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>6</v>
@@ -20511,11 +20511,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">##  S  #OOO+T       </v>
+        <v xml:space="preserve">##     #OOO+T       </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'##  S  #OOO+T       ',</v>
+        <v>'##     #OOO+T       ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -20829,7 +20829,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21478,7 +21478,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>6</v>
@@ -21508,11 +21508,11 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#           S       </v>
+        <v xml:space="preserve">#                   </v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'#           S       ',</v>
+        <v>'#                   ',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -26167,7 +26167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
@@ -34852,7 +34852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>

--- a/model/Squoids_data/Squoids floor builder 20180107.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180107.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="11" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12396" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12398" uniqueCount="288">
   <si>
     <t>width</t>
   </si>
@@ -34852,7 +34852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
@@ -45608,7 +45608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
@@ -46295,8 +46295,8 @@
       <c r="N9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="12">
-        <v>0</v>
+      <c r="O9" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>6</v>
@@ -46324,11 +46324,11 @@
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">         p    0   p </v>
+        <v xml:space="preserve">         p    O   p </v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'         p    0   p ',</v>
+        <v>'         p    O   p ',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -46900,8 +46900,8 @@
       <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="12">
-        <v>0</v>
+      <c r="F17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>6</v>
@@ -46956,11 +46956,11 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> p   0              </v>
+        <v xml:space="preserve"> p   O              </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>' p   0              ',</v>
+        <v>' p   O              ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
